--- a/zh-cn-wiki data/AGA-CN-data.xlsx
+++ b/zh-cn-wiki data/AGA-CN-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="模版007薇吉尼亚•G  " sheetId="8" r:id="rId1"/>
@@ -3740,8 +3740,8 @@
   </si>
   <si>
     <t>连续发射激光的电子闪光灯
-召唤SP技能，在射击目标的同时消灭敌人
-可选择的剩余能量可以同时压缩和燃烧</t>
+召唤SP技能，对目标进行摄影的同时将其歼灭
+能够将剩余的能量压缩并发射</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5058,6 +5058,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5069,9 +5096,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="180" wrapText="1"/>
@@ -5103,35 +5127,14 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="180" wrapText="1"/>
@@ -5193,17 +5196,14 @@
     <xf numFmtId="0" fontId="40" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -23248,7 +23248,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="196" t="s">
         <v>327</v>
       </c>
       <c r="B1" s="183" t="s">
@@ -23276,7 +23276,7 @@
       <c r="J1" s="184"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="211"/>
+      <c r="A2" s="197"/>
       <c r="B2" s="185" t="s">
         <v>156</v>
       </c>
@@ -23302,7 +23302,7 @@
       <c r="J2" s="184"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="211"/>
+      <c r="A3" s="197"/>
       <c r="B3" s="10"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -23314,7 +23314,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="211"/>
+      <c r="A4" s="197"/>
       <c r="B4" s="10"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -23326,7 +23326,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="211"/>
+      <c r="A5" s="197"/>
       <c r="B5" s="10"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -23338,7 +23338,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="211"/>
+      <c r="A6" s="197"/>
       <c r="B6" s="10"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -23350,7 +23350,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="211"/>
+      <c r="A7" s="197"/>
       <c r="B7" s="10"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -23362,7 +23362,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="211"/>
+      <c r="A8" s="197"/>
       <c r="B8" s="10"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -23380,7 +23380,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="211"/>
+      <c r="A9" s="197"/>
       <c r="B9" s="10"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -23398,7 +23398,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="211"/>
+      <c r="A10" s="197"/>
       <c r="B10" s="10"/>
       <c r="C10" s="7"/>
       <c r="D10" s="186" t="s">
@@ -23416,7 +23416,7 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="211"/>
+      <c r="A11" s="197"/>
       <c r="B11" s="10"/>
       <c r="C11" s="7"/>
       <c r="D11" s="186" t="s">
@@ -23434,7 +23434,7 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="211"/>
+      <c r="A12" s="197"/>
       <c r="B12" s="10"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -23446,7 +23446,7 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="211"/>
+      <c r="A13" s="197"/>
       <c r="B13" s="10"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -23462,7 +23462,7 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="211"/>
+      <c r="A14" s="197"/>
       <c r="B14" s="10"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -23476,7 +23476,7 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="211"/>
+      <c r="A15" s="197"/>
       <c r="B15" s="10"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -23488,7 +23488,7 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="211"/>
+      <c r="A16" s="197"/>
       <c r="B16" s="10"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -23502,7 +23502,7 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="211"/>
+      <c r="A17" s="197"/>
       <c r="B17" s="10"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -23514,7 +23514,7 @@
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="211"/>
+      <c r="A18" s="197"/>
       <c r="B18" s="10"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -23528,7 +23528,7 @@
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="211"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="10"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -23540,7 +23540,7 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="211"/>
+      <c r="A20" s="197"/>
       <c r="B20" s="10"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -23554,7 +23554,7 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="211"/>
+      <c r="A21" s="197"/>
       <c r="B21" s="10"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -23566,7 +23566,7 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="211"/>
+      <c r="A22" s="197"/>
       <c r="B22" s="10"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -23578,7 +23578,7 @@
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="211"/>
+      <c r="A23" s="197"/>
       <c r="B23" s="137" t="s">
         <v>19</v>
       </c>
@@ -23719,25 +23719,25 @@
       <c r="J28" s="190"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A29" s="215" t="s">
+      <c r="A29" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="217">
+      <c r="B29" s="203">
         <v>80</v>
       </c>
-      <c r="C29" s="217">
+      <c r="C29" s="203">
         <v>180</v>
       </c>
-      <c r="D29" s="217">
+      <c r="D29" s="203">
         <v>3305</v>
       </c>
-      <c r="E29" s="217">
+      <c r="E29" s="203">
         <v>803</v>
       </c>
-      <c r="F29" s="217">
+      <c r="F29" s="203">
         <v>780</v>
       </c>
-      <c r="G29" s="217">
+      <c r="G29" s="203">
         <v>900</v>
       </c>
       <c r="H29" s="190" t="s">
@@ -23747,18 +23747,18 @@
       <c r="J29" s="190"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A30" s="216"/>
-      <c r="B30" s="218"/>
-      <c r="C30" s="218"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="218"/>
-      <c r="F30" s="218"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="212" t="s">
+      <c r="A30" s="202"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="198" t="s">
         <v>420</v>
       </c>
-      <c r="I30" s="213"/>
-      <c r="J30" s="214"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1">
       <c r="A31" s="38" t="s">
@@ -28363,7 +28363,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="196" t="s">
         <v>328</v>
       </c>
       <c r="B1" s="123" t="s">
@@ -28391,11 +28391,11 @@
       <c r="J1" s="184"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="202" t="s">
+      <c r="A2" s="209"/>
+      <c r="B2" s="210" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="203"/>
+      <c r="C2" s="211"/>
       <c r="D2" s="71" t="s">
         <v>18</v>
       </c>
@@ -28417,7 +28417,7 @@
       <c r="J2" s="184"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A3" s="201"/>
+      <c r="A3" s="209"/>
       <c r="B3" s="76"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
@@ -28429,7 +28429,7 @@
       <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="201"/>
+      <c r="A4" s="209"/>
       <c r="B4" s="76"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -28441,7 +28441,7 @@
       <c r="J4" s="72"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="201"/>
+      <c r="A5" s="209"/>
       <c r="B5" s="76"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -28453,7 +28453,7 @@
       <c r="J5" s="72"/>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A6" s="201"/>
+      <c r="A6" s="209"/>
       <c r="B6" s="76"/>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
@@ -28465,7 +28465,7 @@
       <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A7" s="201"/>
+      <c r="A7" s="209"/>
       <c r="B7" s="76"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
@@ -28477,7 +28477,7 @@
       <c r="J7" s="72"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A8" s="201"/>
+      <c r="A8" s="209"/>
       <c r="B8" s="76"/>
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
@@ -28495,7 +28495,7 @@
       <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A9" s="201"/>
+      <c r="A9" s="209"/>
       <c r="B9" s="76"/>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
@@ -28513,7 +28513,7 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A10" s="201"/>
+      <c r="A10" s="209"/>
       <c r="B10" s="76"/>
       <c r="C10" s="72"/>
       <c r="E10" s="77" t="s">
@@ -28530,11 +28530,11 @@
       <c r="J10" s="72"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A11" s="201"/>
+      <c r="A11" s="209"/>
       <c r="B11" s="76"/>
       <c r="C11" s="72"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="205"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="213"/>
       <c r="F11" s="72"/>
       <c r="G11" s="72"/>
       <c r="H11" s="72"/>
@@ -28542,7 +28542,7 @@
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="201"/>
+      <c r="A12" s="209"/>
       <c r="B12" s="76"/>
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
@@ -28554,127 +28554,127 @@
       <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A13" s="201"/>
+      <c r="A13" s="209"/>
       <c r="B13" s="76"/>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
       <c r="E13" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="199" t="s">
+      <c r="F13" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="199"/>
+      <c r="G13" s="208"/>
       <c r="H13" s="72"/>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A14" s="201"/>
+      <c r="A14" s="209"/>
       <c r="B14" s="76"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="199" t="s">
+      <c r="E14" s="206"/>
+      <c r="F14" s="208" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="199"/>
+      <c r="G14" s="208"/>
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
       <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A15" s="201"/>
+      <c r="A15" s="209"/>
       <c r="B15" s="76"/>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="208"/>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A16" s="201"/>
+      <c r="A16" s="209"/>
       <c r="B16" s="76"/>
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="199" t="s">
+      <c r="E16" s="206"/>
+      <c r="F16" s="208" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="199"/>
+      <c r="G16" s="208"/>
       <c r="H16" s="72"/>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A17" s="201"/>
+      <c r="A17" s="209"/>
       <c r="B17" s="76"/>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
       <c r="J17" s="72"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A18" s="201"/>
+      <c r="A18" s="209"/>
       <c r="B18" s="76"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="199" t="s">
+      <c r="E18" s="206"/>
+      <c r="F18" s="208" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="199"/>
+      <c r="G18" s="208"/>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A19" s="201"/>
+      <c r="A19" s="209"/>
       <c r="B19" s="76"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="208"/>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A20" s="201"/>
+      <c r="A20" s="209"/>
       <c r="B20" s="76"/>
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="199" t="s">
+      <c r="E20" s="206"/>
+      <c r="F20" s="208" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="199"/>
+      <c r="G20" s="208"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A21" s="201"/>
+      <c r="A21" s="209"/>
       <c r="B21" s="76"/>
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A22" s="201"/>
+      <c r="A22" s="209"/>
       <c r="B22" s="76"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
@@ -28686,17 +28686,17 @@
       <c r="J22" s="72"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A23" s="201"/>
-      <c r="B23" s="206" t="s">
+      <c r="A23" s="209"/>
+      <c r="B23" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206"/>
-      <c r="H23" s="206" t="s">
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
+      <c r="H23" s="214" t="s">
         <v>338</v>
       </c>
-      <c r="I23" s="206"/>
-      <c r="J23" s="206"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="214"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" customHeight="1">
       <c r="A24" s="177" t="s">
@@ -29516,13 +29516,13 @@
       <c r="G68" s="134">
         <v>230</v>
       </c>
-      <c r="H68" s="207">
+      <c r="H68" s="215">
         <v>232</v>
       </c>
       <c r="I68" s="134">
         <v>434</v>
       </c>
-      <c r="J68" s="207">
+      <c r="J68" s="215">
         <v>438</v>
       </c>
     </row>
@@ -29536,9 +29536,9 @@
       <c r="E69" s="134"/>
       <c r="F69" s="134"/>
       <c r="G69" s="134"/>
-      <c r="H69" s="207"/>
+      <c r="H69" s="215"/>
       <c r="I69" s="134"/>
-      <c r="J69" s="207"/>
+      <c r="J69" s="215"/>
     </row>
     <row r="70" spans="1:10" ht="13.5" customHeight="1">
       <c r="A70" s="134" t="s">
@@ -29554,13 +29554,13 @@
       <c r="G70" s="134">
         <v>255</v>
       </c>
-      <c r="H70" s="207">
+      <c r="H70" s="215">
         <v>258</v>
       </c>
       <c r="I70" s="134">
         <v>459</v>
       </c>
-      <c r="J70" s="207">
+      <c r="J70" s="215">
         <v>464</v>
       </c>
     </row>
@@ -29574,9 +29574,9 @@
       <c r="E71" s="134"/>
       <c r="F71" s="134"/>
       <c r="G71" s="134"/>
-      <c r="H71" s="207"/>
+      <c r="H71" s="215"/>
       <c r="I71" s="134"/>
-      <c r="J71" s="207"/>
+      <c r="J71" s="215"/>
     </row>
     <row r="72" spans="1:10" ht="13.5" customHeight="1">
       <c r="A72" s="80"/>
@@ -29723,80 +29723,80 @@
       <c r="J83" s="80"/>
     </row>
     <row r="84" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A84" s="208" t="s">
+      <c r="A84" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="208"/>
-      <c r="D84" s="209" t="s">
+      <c r="B84" s="216"/>
+      <c r="D84" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="209"/>
-      <c r="G84" s="209"/>
-      <c r="I84" s="208" t="s">
+      <c r="E84" s="217"/>
+      <c r="F84" s="217"/>
+      <c r="G84" s="217"/>
+      <c r="I84" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="J84" s="208"/>
+      <c r="J84" s="216"/>
     </row>
     <row r="85" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A85" s="208"/>
-      <c r="B85" s="208"/>
-      <c r="D85" s="209"/>
-      <c r="E85" s="209"/>
-      <c r="F85" s="209"/>
-      <c r="G85" s="209"/>
-      <c r="I85" s="208"/>
-      <c r="J85" s="208"/>
+      <c r="A85" s="216"/>
+      <c r="B85" s="216"/>
+      <c r="D85" s="217"/>
+      <c r="E85" s="217"/>
+      <c r="F85" s="217"/>
+      <c r="G85" s="217"/>
+      <c r="I85" s="216"/>
+      <c r="J85" s="216"/>
     </row>
     <row r="86" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A86" s="208"/>
-      <c r="B86" s="208"/>
-      <c r="D86" s="209"/>
-      <c r="E86" s="209"/>
-      <c r="F86" s="209"/>
-      <c r="G86" s="209"/>
-      <c r="I86" s="208"/>
-      <c r="J86" s="208"/>
+      <c r="A86" s="216"/>
+      <c r="B86" s="216"/>
+      <c r="D86" s="217"/>
+      <c r="E86" s="217"/>
+      <c r="F86" s="217"/>
+      <c r="G86" s="217"/>
+      <c r="I86" s="216"/>
+      <c r="J86" s="216"/>
     </row>
     <row r="87" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A87" s="208"/>
-      <c r="B87" s="208"/>
-      <c r="D87" s="209"/>
-      <c r="E87" s="209"/>
-      <c r="F87" s="209"/>
-      <c r="G87" s="209"/>
-      <c r="I87" s="208"/>
-      <c r="J87" s="208"/>
+      <c r="A87" s="216"/>
+      <c r="B87" s="216"/>
+      <c r="D87" s="217"/>
+      <c r="E87" s="217"/>
+      <c r="F87" s="217"/>
+      <c r="G87" s="217"/>
+      <c r="I87" s="216"/>
+      <c r="J87" s="216"/>
     </row>
     <row r="88" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A88" s="208"/>
-      <c r="B88" s="208"/>
-      <c r="D88" s="209"/>
-      <c r="E88" s="209"/>
-      <c r="F88" s="209"/>
-      <c r="G88" s="209"/>
-      <c r="I88" s="208"/>
-      <c r="J88" s="208"/>
+      <c r="A88" s="216"/>
+      <c r="B88" s="216"/>
+      <c r="D88" s="217"/>
+      <c r="E88" s="217"/>
+      <c r="F88" s="217"/>
+      <c r="G88" s="217"/>
+      <c r="I88" s="216"/>
+      <c r="J88" s="216"/>
     </row>
     <row r="89" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A89" s="208"/>
-      <c r="B89" s="208"/>
-      <c r="D89" s="209"/>
-      <c r="E89" s="209"/>
-      <c r="F89" s="209"/>
-      <c r="G89" s="209"/>
-      <c r="I89" s="208"/>
-      <c r="J89" s="208"/>
+      <c r="A89" s="216"/>
+      <c r="B89" s="216"/>
+      <c r="D89" s="217"/>
+      <c r="E89" s="217"/>
+      <c r="F89" s="217"/>
+      <c r="G89" s="217"/>
+      <c r="I89" s="216"/>
+      <c r="J89" s="216"/>
     </row>
     <row r="90" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A90" s="208"/>
-      <c r="B90" s="208"/>
-      <c r="D90" s="209"/>
-      <c r="E90" s="209"/>
-      <c r="F90" s="209"/>
-      <c r="G90" s="209"/>
-      <c r="I90" s="208"/>
-      <c r="J90" s="208"/>
+      <c r="A90" s="216"/>
+      <c r="B90" s="216"/>
+      <c r="D90" s="217"/>
+      <c r="E90" s="217"/>
+      <c r="F90" s="217"/>
+      <c r="G90" s="217"/>
+      <c r="I90" s="216"/>
+      <c r="J90" s="216"/>
     </row>
     <row r="92" spans="1:10" ht="13.5" customHeight="1">
       <c r="A92" s="134" t="s">
@@ -30153,80 +30153,80 @@
       <c r="J112" s="80"/>
     </row>
     <row r="113" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A113" s="208" t="s">
+      <c r="A113" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B113" s="208"/>
-      <c r="D113" s="209" t="s">
+      <c r="B113" s="216"/>
+      <c r="D113" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E113" s="209"/>
-      <c r="F113" s="209"/>
-      <c r="G113" s="209"/>
-      <c r="I113" s="208" t="s">
+      <c r="E113" s="217"/>
+      <c r="F113" s="217"/>
+      <c r="G113" s="217"/>
+      <c r="I113" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="J113" s="208"/>
+      <c r="J113" s="216"/>
     </row>
     <row r="114" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A114" s="208"/>
-      <c r="B114" s="208"/>
-      <c r="D114" s="209"/>
-      <c r="E114" s="209"/>
-      <c r="F114" s="209"/>
-      <c r="G114" s="209"/>
-      <c r="I114" s="208"/>
-      <c r="J114" s="208"/>
+      <c r="A114" s="216"/>
+      <c r="B114" s="216"/>
+      <c r="D114" s="217"/>
+      <c r="E114" s="217"/>
+      <c r="F114" s="217"/>
+      <c r="G114" s="217"/>
+      <c r="I114" s="216"/>
+      <c r="J114" s="216"/>
     </row>
     <row r="115" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A115" s="208"/>
-      <c r="B115" s="208"/>
-      <c r="D115" s="209"/>
-      <c r="E115" s="209"/>
-      <c r="F115" s="209"/>
-      <c r="G115" s="209"/>
-      <c r="I115" s="208"/>
-      <c r="J115" s="208"/>
+      <c r="A115" s="216"/>
+      <c r="B115" s="216"/>
+      <c r="D115" s="217"/>
+      <c r="E115" s="217"/>
+      <c r="F115" s="217"/>
+      <c r="G115" s="217"/>
+      <c r="I115" s="216"/>
+      <c r="J115" s="216"/>
     </row>
     <row r="116" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A116" s="208"/>
-      <c r="B116" s="208"/>
-      <c r="D116" s="209"/>
-      <c r="E116" s="209"/>
-      <c r="F116" s="209"/>
-      <c r="G116" s="209"/>
-      <c r="I116" s="208"/>
-      <c r="J116" s="208"/>
+      <c r="A116" s="216"/>
+      <c r="B116" s="216"/>
+      <c r="D116" s="217"/>
+      <c r="E116" s="217"/>
+      <c r="F116" s="217"/>
+      <c r="G116" s="217"/>
+      <c r="I116" s="216"/>
+      <c r="J116" s="216"/>
     </row>
     <row r="117" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A117" s="208"/>
-      <c r="B117" s="208"/>
-      <c r="D117" s="209"/>
-      <c r="E117" s="209"/>
-      <c r="F117" s="209"/>
-      <c r="G117" s="209"/>
-      <c r="I117" s="208"/>
-      <c r="J117" s="208"/>
+      <c r="A117" s="216"/>
+      <c r="B117" s="216"/>
+      <c r="D117" s="217"/>
+      <c r="E117" s="217"/>
+      <c r="F117" s="217"/>
+      <c r="G117" s="217"/>
+      <c r="I117" s="216"/>
+      <c r="J117" s="216"/>
     </row>
     <row r="118" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A118" s="208"/>
-      <c r="B118" s="208"/>
-      <c r="D118" s="209"/>
-      <c r="E118" s="209"/>
-      <c r="F118" s="209"/>
-      <c r="G118" s="209"/>
-      <c r="I118" s="208"/>
-      <c r="J118" s="208"/>
+      <c r="A118" s="216"/>
+      <c r="B118" s="216"/>
+      <c r="D118" s="217"/>
+      <c r="E118" s="217"/>
+      <c r="F118" s="217"/>
+      <c r="G118" s="217"/>
+      <c r="I118" s="216"/>
+      <c r="J118" s="216"/>
     </row>
     <row r="119" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A119" s="208"/>
-      <c r="B119" s="208"/>
-      <c r="D119" s="209"/>
-      <c r="E119" s="209"/>
-      <c r="F119" s="209"/>
-      <c r="G119" s="209"/>
-      <c r="I119" s="208"/>
-      <c r="J119" s="208"/>
+      <c r="A119" s="216"/>
+      <c r="B119" s="216"/>
+      <c r="D119" s="217"/>
+      <c r="E119" s="217"/>
+      <c r="F119" s="217"/>
+      <c r="G119" s="217"/>
+      <c r="I119" s="216"/>
+      <c r="J119" s="216"/>
     </row>
     <row r="121" spans="1:10" ht="13.5" customHeight="1">
       <c r="A121" s="134" t="s">
@@ -30537,7 +30537,7 @@
       </c>
       <c r="E135" s="159"/>
       <c r="F135" s="161"/>
-      <c r="G135" s="196" t="s">
+      <c r="G135" s="205" t="s">
         <v>600</v>
       </c>
       <c r="H135" s="151"/>
@@ -30745,80 +30745,80 @@
       <c r="J150" s="80"/>
     </row>
     <row r="151" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A151" s="208" t="s">
+      <c r="A151" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B151" s="208"/>
-      <c r="D151" s="209" t="s">
+      <c r="B151" s="216"/>
+      <c r="D151" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E151" s="209"/>
-      <c r="F151" s="209"/>
-      <c r="G151" s="209"/>
-      <c r="I151" s="208" t="s">
+      <c r="E151" s="217"/>
+      <c r="F151" s="217"/>
+      <c r="G151" s="217"/>
+      <c r="I151" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="J151" s="208"/>
+      <c r="J151" s="216"/>
     </row>
     <row r="152" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A152" s="208"/>
-      <c r="B152" s="208"/>
-      <c r="D152" s="209"/>
-      <c r="E152" s="209"/>
-      <c r="F152" s="209"/>
-      <c r="G152" s="209"/>
-      <c r="I152" s="208"/>
-      <c r="J152" s="208"/>
+      <c r="A152" s="216"/>
+      <c r="B152" s="216"/>
+      <c r="D152" s="217"/>
+      <c r="E152" s="217"/>
+      <c r="F152" s="217"/>
+      <c r="G152" s="217"/>
+      <c r="I152" s="216"/>
+      <c r="J152" s="216"/>
     </row>
     <row r="153" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A153" s="208"/>
-      <c r="B153" s="208"/>
-      <c r="D153" s="209"/>
-      <c r="E153" s="209"/>
-      <c r="F153" s="209"/>
-      <c r="G153" s="209"/>
-      <c r="I153" s="208"/>
-      <c r="J153" s="208"/>
+      <c r="A153" s="216"/>
+      <c r="B153" s="216"/>
+      <c r="D153" s="217"/>
+      <c r="E153" s="217"/>
+      <c r="F153" s="217"/>
+      <c r="G153" s="217"/>
+      <c r="I153" s="216"/>
+      <c r="J153" s="216"/>
     </row>
     <row r="154" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A154" s="208"/>
-      <c r="B154" s="208"/>
-      <c r="D154" s="209"/>
-      <c r="E154" s="209"/>
-      <c r="F154" s="209"/>
-      <c r="G154" s="209"/>
-      <c r="I154" s="208"/>
-      <c r="J154" s="208"/>
+      <c r="A154" s="216"/>
+      <c r="B154" s="216"/>
+      <c r="D154" s="217"/>
+      <c r="E154" s="217"/>
+      <c r="F154" s="217"/>
+      <c r="G154" s="217"/>
+      <c r="I154" s="216"/>
+      <c r="J154" s="216"/>
     </row>
     <row r="155" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A155" s="208"/>
-      <c r="B155" s="208"/>
-      <c r="D155" s="209"/>
-      <c r="E155" s="209"/>
-      <c r="F155" s="209"/>
-      <c r="G155" s="209"/>
-      <c r="I155" s="208"/>
-      <c r="J155" s="208"/>
+      <c r="A155" s="216"/>
+      <c r="B155" s="216"/>
+      <c r="D155" s="217"/>
+      <c r="E155" s="217"/>
+      <c r="F155" s="217"/>
+      <c r="G155" s="217"/>
+      <c r="I155" s="216"/>
+      <c r="J155" s="216"/>
     </row>
     <row r="156" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A156" s="208"/>
-      <c r="B156" s="208"/>
-      <c r="D156" s="209"/>
-      <c r="E156" s="209"/>
-      <c r="F156" s="209"/>
-      <c r="G156" s="209"/>
-      <c r="I156" s="208"/>
-      <c r="J156" s="208"/>
+      <c r="A156" s="216"/>
+      <c r="B156" s="216"/>
+      <c r="D156" s="217"/>
+      <c r="E156" s="217"/>
+      <c r="F156" s="217"/>
+      <c r="G156" s="217"/>
+      <c r="I156" s="216"/>
+      <c r="J156" s="216"/>
     </row>
     <row r="157" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A157" s="208"/>
-      <c r="B157" s="208"/>
-      <c r="D157" s="209"/>
-      <c r="E157" s="209"/>
-      <c r="F157" s="209"/>
-      <c r="G157" s="209"/>
-      <c r="I157" s="208"/>
-      <c r="J157" s="208"/>
+      <c r="A157" s="216"/>
+      <c r="B157" s="216"/>
+      <c r="D157" s="217"/>
+      <c r="E157" s="217"/>
+      <c r="F157" s="217"/>
+      <c r="G157" s="217"/>
+      <c r="I157" s="216"/>
+      <c r="J157" s="216"/>
     </row>
     <row r="159" spans="1:10" ht="13.5" customHeight="1">
       <c r="A159" s="150" t="s">
@@ -31129,7 +31129,7 @@
       </c>
       <c r="E173" s="159"/>
       <c r="F173" s="161"/>
-      <c r="G173" s="196" t="s">
+      <c r="G173" s="205" t="s">
         <v>600</v>
       </c>
       <c r="H173" s="151"/>
@@ -31337,80 +31337,80 @@
       <c r="J188" s="80"/>
     </row>
     <row r="189" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A189" s="208" t="s">
+      <c r="A189" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B189" s="208"/>
-      <c r="D189" s="209" t="s">
+      <c r="B189" s="216"/>
+      <c r="D189" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E189" s="209"/>
-      <c r="F189" s="209"/>
-      <c r="G189" s="209"/>
-      <c r="I189" s="208" t="s">
+      <c r="E189" s="217"/>
+      <c r="F189" s="217"/>
+      <c r="G189" s="217"/>
+      <c r="I189" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="J189" s="208"/>
+      <c r="J189" s="216"/>
     </row>
     <row r="190" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A190" s="208"/>
-      <c r="B190" s="208"/>
-      <c r="D190" s="209"/>
-      <c r="E190" s="209"/>
-      <c r="F190" s="209"/>
-      <c r="G190" s="209"/>
-      <c r="I190" s="208"/>
-      <c r="J190" s="208"/>
+      <c r="A190" s="216"/>
+      <c r="B190" s="216"/>
+      <c r="D190" s="217"/>
+      <c r="E190" s="217"/>
+      <c r="F190" s="217"/>
+      <c r="G190" s="217"/>
+      <c r="I190" s="216"/>
+      <c r="J190" s="216"/>
     </row>
     <row r="191" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A191" s="208"/>
-      <c r="B191" s="208"/>
-      <c r="D191" s="209"/>
-      <c r="E191" s="209"/>
-      <c r="F191" s="209"/>
-      <c r="G191" s="209"/>
-      <c r="I191" s="208"/>
-      <c r="J191" s="208"/>
+      <c r="A191" s="216"/>
+      <c r="B191" s="216"/>
+      <c r="D191" s="217"/>
+      <c r="E191" s="217"/>
+      <c r="F191" s="217"/>
+      <c r="G191" s="217"/>
+      <c r="I191" s="216"/>
+      <c r="J191" s="216"/>
     </row>
     <row r="192" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A192" s="208"/>
-      <c r="B192" s="208"/>
-      <c r="D192" s="209"/>
-      <c r="E192" s="209"/>
-      <c r="F192" s="209"/>
-      <c r="G192" s="209"/>
-      <c r="I192" s="208"/>
-      <c r="J192" s="208"/>
+      <c r="A192" s="216"/>
+      <c r="B192" s="216"/>
+      <c r="D192" s="217"/>
+      <c r="E192" s="217"/>
+      <c r="F192" s="217"/>
+      <c r="G192" s="217"/>
+      <c r="I192" s="216"/>
+      <c r="J192" s="216"/>
     </row>
     <row r="193" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A193" s="208"/>
-      <c r="B193" s="208"/>
-      <c r="D193" s="209"/>
-      <c r="E193" s="209"/>
-      <c r="F193" s="209"/>
-      <c r="G193" s="209"/>
-      <c r="I193" s="208"/>
-      <c r="J193" s="208"/>
+      <c r="A193" s="216"/>
+      <c r="B193" s="216"/>
+      <c r="D193" s="217"/>
+      <c r="E193" s="217"/>
+      <c r="F193" s="217"/>
+      <c r="G193" s="217"/>
+      <c r="I193" s="216"/>
+      <c r="J193" s="216"/>
     </row>
     <row r="194" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A194" s="208"/>
-      <c r="B194" s="208"/>
-      <c r="D194" s="209"/>
-      <c r="E194" s="209"/>
-      <c r="F194" s="209"/>
-      <c r="G194" s="209"/>
-      <c r="I194" s="208"/>
-      <c r="J194" s="208"/>
+      <c r="A194" s="216"/>
+      <c r="B194" s="216"/>
+      <c r="D194" s="217"/>
+      <c r="E194" s="217"/>
+      <c r="F194" s="217"/>
+      <c r="G194" s="217"/>
+      <c r="I194" s="216"/>
+      <c r="J194" s="216"/>
     </row>
     <row r="195" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A195" s="208"/>
-      <c r="B195" s="208"/>
-      <c r="D195" s="209"/>
-      <c r="E195" s="209"/>
-      <c r="F195" s="209"/>
-      <c r="G195" s="209"/>
-      <c r="I195" s="208"/>
-      <c r="J195" s="208"/>
+      <c r="A195" s="216"/>
+      <c r="B195" s="216"/>
+      <c r="D195" s="217"/>
+      <c r="E195" s="217"/>
+      <c r="F195" s="217"/>
+      <c r="G195" s="217"/>
+      <c r="I195" s="216"/>
+      <c r="J195" s="216"/>
     </row>
     <row r="198" spans="1:10" ht="13.5" customHeight="1">
       <c r="A198" s="134" t="s">
@@ -32000,30 +32000,30 @@
       <c r="J238" s="152"/>
     </row>
     <row r="241" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A241" s="210" t="s">
+      <c r="A241" s="218" t="s">
         <v>131</v>
       </c>
-      <c r="B241" s="210"/>
-      <c r="C241" s="210"/>
-      <c r="D241" s="210"/>
-      <c r="E241" s="210"/>
-      <c r="F241" s="210"/>
-      <c r="G241" s="210"/>
-      <c r="H241" s="210"/>
-      <c r="I241" s="210"/>
-      <c r="J241" s="210"/>
+      <c r="B241" s="218"/>
+      <c r="C241" s="218"/>
+      <c r="D241" s="218"/>
+      <c r="E241" s="218"/>
+      <c r="F241" s="218"/>
+      <c r="G241" s="218"/>
+      <c r="H241" s="218"/>
+      <c r="I241" s="218"/>
+      <c r="J241" s="218"/>
     </row>
     <row r="242" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A242" s="210"/>
-      <c r="B242" s="210"/>
-      <c r="C242" s="210"/>
-      <c r="D242" s="210"/>
-      <c r="E242" s="210"/>
-      <c r="F242" s="210"/>
-      <c r="G242" s="210"/>
-      <c r="H242" s="210"/>
-      <c r="I242" s="210"/>
-      <c r="J242" s="210"/>
+      <c r="A242" s="218"/>
+      <c r="B242" s="218"/>
+      <c r="C242" s="218"/>
+      <c r="D242" s="218"/>
+      <c r="E242" s="218"/>
+      <c r="F242" s="218"/>
+      <c r="G242" s="218"/>
+      <c r="H242" s="218"/>
+      <c r="I242" s="218"/>
+      <c r="J242" s="218"/>
     </row>
     <row r="243" spans="1:10" ht="13.5" customHeight="1">
       <c r="A243" s="80"/>
@@ -32206,20 +32206,20 @@
       <c r="J257" s="80"/>
     </row>
     <row r="258" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A258" s="206" t="s">
+      <c r="A258" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="B258" s="206"/>
-      <c r="C258" s="206"/>
+      <c r="B258" s="214"/>
+      <c r="C258" s="214"/>
       <c r="D258" s="80"/>
       <c r="E258" s="80"/>
       <c r="F258" s="80"/>
       <c r="G258" s="80"/>
-      <c r="H258" s="206" t="s">
+      <c r="H258" s="214" t="s">
         <v>399</v>
       </c>
-      <c r="I258" s="206"/>
-      <c r="J258" s="206"/>
+      <c r="I258" s="214"/>
+      <c r="J258" s="214"/>
     </row>
     <row r="259" spans="1:10" ht="13.5" customHeight="1">
       <c r="A259" s="80"/>
@@ -32471,6 +32471,12 @@
     <mergeCell ref="F230:J230"/>
     <mergeCell ref="F231:G231"/>
     <mergeCell ref="H231:J231"/>
+    <mergeCell ref="F222:J224"/>
+    <mergeCell ref="F225:J227"/>
+    <mergeCell ref="F220:J221"/>
+    <mergeCell ref="B222:D224"/>
+    <mergeCell ref="E222:E227"/>
+    <mergeCell ref="B225:D227"/>
     <mergeCell ref="A189:B195"/>
     <mergeCell ref="D189:G195"/>
     <mergeCell ref="I189:J195"/>
@@ -32485,6 +32491,11 @@
     <mergeCell ref="F210:J210"/>
     <mergeCell ref="G211:J211"/>
     <mergeCell ref="E201:E206"/>
+    <mergeCell ref="F199:J200"/>
+    <mergeCell ref="B201:D203"/>
+    <mergeCell ref="B204:D206"/>
+    <mergeCell ref="F201:J203"/>
+    <mergeCell ref="F204:J206"/>
     <mergeCell ref="A162:C162"/>
     <mergeCell ref="E162:E164"/>
     <mergeCell ref="F162:F164"/>
@@ -32683,17 +32694,7 @@
     <mergeCell ref="G137:I137"/>
     <mergeCell ref="A138:C138"/>
     <mergeCell ref="G138:I138"/>
-    <mergeCell ref="F222:J224"/>
-    <mergeCell ref="F225:J227"/>
-    <mergeCell ref="F199:J200"/>
-    <mergeCell ref="B201:D203"/>
-    <mergeCell ref="B204:D206"/>
-    <mergeCell ref="F201:J203"/>
-    <mergeCell ref="F204:J206"/>
-    <mergeCell ref="F220:J221"/>
-    <mergeCell ref="B222:D224"/>
-    <mergeCell ref="E222:E227"/>
-    <mergeCell ref="B225:D227"/>
+    <mergeCell ref="A219:J219"/>
     <mergeCell ref="A212:C212"/>
     <mergeCell ref="E212:E214"/>
     <mergeCell ref="F212:F217"/>
@@ -32706,7 +32707,6 @@
     <mergeCell ref="A216:C216"/>
     <mergeCell ref="G216:J217"/>
     <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A219:J219"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32719,8 +32719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P273"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="N268" sqref="N268"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="M272" sqref="M272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -32733,7 +32733,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="222" t="s">
         <v>406</v>
       </c>
       <c r="B1" s="123" t="s">
@@ -32761,11 +32761,11 @@
       <c r="J1" s="184"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="222"/>
-      <c r="B2" s="202" t="s">
+      <c r="A2" s="223"/>
+      <c r="B2" s="210" t="s">
         <v>621</v>
       </c>
-      <c r="C2" s="203"/>
+      <c r="C2" s="211"/>
       <c r="D2" s="71" t="s">
         <v>304</v>
       </c>
@@ -32787,7 +32787,7 @@
       <c r="J2" s="184"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A3" s="222"/>
+      <c r="A3" s="223"/>
       <c r="B3" s="79"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
@@ -32799,7 +32799,7 @@
       <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="222"/>
+      <c r="A4" s="223"/>
       <c r="B4" s="79"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -32811,7 +32811,7 @@
       <c r="J4" s="72"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="222"/>
+      <c r="A5" s="223"/>
       <c r="B5" s="79"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -32823,7 +32823,7 @@
       <c r="J5" s="72"/>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A6" s="222"/>
+      <c r="A6" s="223"/>
       <c r="B6" s="79"/>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
@@ -32835,7 +32835,7 @@
       <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A7" s="222"/>
+      <c r="A7" s="223"/>
       <c r="B7" s="79"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
@@ -32847,7 +32847,7 @@
       <c r="J7" s="72"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A8" s="222"/>
+      <c r="A8" s="223"/>
       <c r="B8" s="79"/>
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
@@ -32865,7 +32865,7 @@
       <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A9" s="222"/>
+      <c r="A9" s="223"/>
       <c r="B9" s="79"/>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
@@ -32883,7 +32883,7 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A10" s="222"/>
+      <c r="A10" s="223"/>
       <c r="B10" s="79"/>
       <c r="C10" s="72"/>
       <c r="E10" s="78" t="s">
@@ -32900,11 +32900,11 @@
       <c r="J10" s="72"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A11" s="222"/>
+      <c r="A11" s="223"/>
       <c r="B11" s="79"/>
       <c r="C11" s="72"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="205"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="213"/>
       <c r="F11" s="72"/>
       <c r="G11" s="72"/>
       <c r="H11" s="72"/>
@@ -32912,7 +32912,7 @@
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="222"/>
+      <c r="A12" s="223"/>
       <c r="B12" s="79"/>
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
@@ -32924,127 +32924,127 @@
       <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A13" s="222"/>
+      <c r="A13" s="223"/>
       <c r="B13" s="79"/>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
       <c r="E13" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="199" t="s">
+      <c r="F13" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="199"/>
+      <c r="G13" s="208"/>
       <c r="H13" s="72"/>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A14" s="222"/>
+      <c r="A14" s="223"/>
       <c r="B14" s="79"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="199" t="s">
+      <c r="E14" s="206"/>
+      <c r="F14" s="208" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="199"/>
+      <c r="G14" s="208"/>
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
       <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A15" s="222"/>
+      <c r="A15" s="223"/>
       <c r="B15" s="79"/>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="208"/>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A16" s="222"/>
+      <c r="A16" s="223"/>
       <c r="B16" s="79"/>
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="199" t="s">
+      <c r="E16" s="206"/>
+      <c r="F16" s="208" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="199"/>
+      <c r="G16" s="208"/>
       <c r="H16" s="72"/>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A17" s="222"/>
+      <c r="A17" s="223"/>
       <c r="B17" s="79"/>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
       <c r="J17" s="72"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A18" s="222"/>
+      <c r="A18" s="223"/>
       <c r="B18" s="79"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="199" t="s">
+      <c r="E18" s="206"/>
+      <c r="F18" s="208" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="199"/>
+      <c r="G18" s="208"/>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A19" s="222"/>
+      <c r="A19" s="223"/>
       <c r="B19" s="79"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="208"/>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A20" s="222"/>
+      <c r="A20" s="223"/>
       <c r="B20" s="79"/>
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="199" t="s">
+      <c r="E20" s="206"/>
+      <c r="F20" s="208" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="199"/>
+      <c r="G20" s="208"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A21" s="222"/>
+      <c r="A21" s="223"/>
       <c r="B21" s="79"/>
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A22" s="222"/>
+      <c r="A22" s="223"/>
       <c r="B22" s="79"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
@@ -33056,17 +33056,17 @@
       <c r="J22" s="72"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A23" s="222"/>
-      <c r="B23" s="206" t="s">
+      <c r="A23" s="223"/>
+      <c r="B23" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206"/>
-      <c r="H23" s="206" t="s">
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
+      <c r="H23" s="214" t="s">
         <v>405</v>
       </c>
-      <c r="I23" s="206"/>
-      <c r="J23" s="206"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="214"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" customHeight="1">
       <c r="A24" s="177" t="s">
@@ -33541,10 +33541,10 @@
       <c r="A50" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="244" t="s">
+      <c r="B50" s="221" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="244"/>
+      <c r="C50" s="221"/>
       <c r="D50" s="168" t="s">
         <v>152</v>
       </c>
@@ -33559,10 +33559,10 @@
       <c r="A51" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="244" t="s">
+      <c r="B51" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="244"/>
+      <c r="C51" s="221"/>
       <c r="D51" s="168" t="s">
         <v>361</v>
       </c>
@@ -33577,10 +33577,10 @@
       <c r="A52" s="111">
         <v>5</v>
       </c>
-      <c r="B52" s="244" t="s">
+      <c r="B52" s="221" t="s">
         <v>505</v>
       </c>
-      <c r="C52" s="244"/>
+      <c r="C52" s="221"/>
       <c r="D52" s="168" t="s">
         <v>191</v>
       </c>
@@ -33596,10 +33596,10 @@
       <c r="A53" s="111">
         <v>10</v>
       </c>
-      <c r="B53" s="244" t="s">
+      <c r="B53" s="221" t="s">
         <v>506</v>
       </c>
-      <c r="C53" s="244"/>
+      <c r="C53" s="221"/>
       <c r="D53" s="168" t="s">
         <v>636</v>
       </c>
@@ -33614,10 +33614,10 @@
       <c r="A54" s="111">
         <v>20</v>
       </c>
-      <c r="B54" s="244" t="s">
+      <c r="B54" s="221" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="244"/>
+      <c r="C54" s="221"/>
       <c r="D54" s="168" t="s">
         <v>353</v>
       </c>
@@ -33632,10 +33632,10 @@
       <c r="A55" s="111">
         <v>35</v>
       </c>
-      <c r="B55" s="244" t="s">
+      <c r="B55" s="221" t="s">
         <v>507</v>
       </c>
-      <c r="C55" s="244"/>
+      <c r="C55" s="221"/>
       <c r="D55" s="168" t="s">
         <v>511</v>
       </c>
@@ -33680,10 +33680,10 @@
       <c r="A58" s="111">
         <v>65</v>
       </c>
-      <c r="B58" s="244" t="s">
+      <c r="B58" s="221" t="s">
         <v>505</v>
       </c>
-      <c r="C58" s="244"/>
+      <c r="C58" s="221"/>
       <c r="D58" s="168" t="s">
         <v>191</v>
       </c>
@@ -34111,80 +34111,80 @@
       <c r="J84" s="80"/>
     </row>
     <row r="85" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A85" s="208" t="s">
+      <c r="A85" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="208"/>
-      <c r="D85" s="209" t="s">
+      <c r="B85" s="216"/>
+      <c r="D85" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E85" s="209"/>
-      <c r="F85" s="209"/>
-      <c r="G85" s="209"/>
-      <c r="I85" s="208" t="s">
+      <c r="E85" s="217"/>
+      <c r="F85" s="217"/>
+      <c r="G85" s="217"/>
+      <c r="I85" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="J85" s="208"/>
+      <c r="J85" s="216"/>
     </row>
     <row r="86" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A86" s="208"/>
-      <c r="B86" s="208"/>
-      <c r="D86" s="209"/>
-      <c r="E86" s="209"/>
-      <c r="F86" s="209"/>
-      <c r="G86" s="209"/>
-      <c r="I86" s="208"/>
-      <c r="J86" s="208"/>
+      <c r="A86" s="216"/>
+      <c r="B86" s="216"/>
+      <c r="D86" s="217"/>
+      <c r="E86" s="217"/>
+      <c r="F86" s="217"/>
+      <c r="G86" s="217"/>
+      <c r="I86" s="216"/>
+      <c r="J86" s="216"/>
     </row>
     <row r="87" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A87" s="208"/>
-      <c r="B87" s="208"/>
-      <c r="D87" s="209"/>
-      <c r="E87" s="209"/>
-      <c r="F87" s="209"/>
-      <c r="G87" s="209"/>
-      <c r="I87" s="208"/>
-      <c r="J87" s="208"/>
+      <c r="A87" s="216"/>
+      <c r="B87" s="216"/>
+      <c r="D87" s="217"/>
+      <c r="E87" s="217"/>
+      <c r="F87" s="217"/>
+      <c r="G87" s="217"/>
+      <c r="I87" s="216"/>
+      <c r="J87" s="216"/>
     </row>
     <row r="88" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A88" s="208"/>
-      <c r="B88" s="208"/>
-      <c r="D88" s="209"/>
-      <c r="E88" s="209"/>
-      <c r="F88" s="209"/>
-      <c r="G88" s="209"/>
-      <c r="I88" s="208"/>
-      <c r="J88" s="208"/>
+      <c r="A88" s="216"/>
+      <c r="B88" s="216"/>
+      <c r="D88" s="217"/>
+      <c r="E88" s="217"/>
+      <c r="F88" s="217"/>
+      <c r="G88" s="217"/>
+      <c r="I88" s="216"/>
+      <c r="J88" s="216"/>
     </row>
     <row r="89" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A89" s="208"/>
-      <c r="B89" s="208"/>
-      <c r="D89" s="209"/>
-      <c r="E89" s="209"/>
-      <c r="F89" s="209"/>
-      <c r="G89" s="209"/>
-      <c r="I89" s="208"/>
-      <c r="J89" s="208"/>
+      <c r="A89" s="216"/>
+      <c r="B89" s="216"/>
+      <c r="D89" s="217"/>
+      <c r="E89" s="217"/>
+      <c r="F89" s="217"/>
+      <c r="G89" s="217"/>
+      <c r="I89" s="216"/>
+      <c r="J89" s="216"/>
     </row>
     <row r="90" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A90" s="208"/>
-      <c r="B90" s="208"/>
-      <c r="D90" s="209"/>
-      <c r="E90" s="209"/>
-      <c r="F90" s="209"/>
-      <c r="G90" s="209"/>
-      <c r="I90" s="208"/>
-      <c r="J90" s="208"/>
+      <c r="A90" s="216"/>
+      <c r="B90" s="216"/>
+      <c r="D90" s="217"/>
+      <c r="E90" s="217"/>
+      <c r="F90" s="217"/>
+      <c r="G90" s="217"/>
+      <c r="I90" s="216"/>
+      <c r="J90" s="216"/>
     </row>
     <row r="91" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A91" s="208"/>
-      <c r="B91" s="208"/>
-      <c r="D91" s="209"/>
-      <c r="E91" s="209"/>
-      <c r="F91" s="209"/>
-      <c r="G91" s="209"/>
-      <c r="I91" s="208"/>
-      <c r="J91" s="208"/>
+      <c r="A91" s="216"/>
+      <c r="B91" s="216"/>
+      <c r="D91" s="217"/>
+      <c r="E91" s="217"/>
+      <c r="F91" s="217"/>
+      <c r="G91" s="217"/>
+      <c r="I91" s="216"/>
+      <c r="J91" s="216"/>
     </row>
     <row r="93" spans="1:10" ht="13.5" customHeight="1">
       <c r="A93" s="134" t="s">
@@ -34541,80 +34541,80 @@
       <c r="J113" s="80"/>
     </row>
     <row r="114" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A114" s="208" t="s">
+      <c r="A114" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B114" s="208"/>
-      <c r="D114" s="209" t="s">
+      <c r="B114" s="216"/>
+      <c r="D114" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E114" s="209"/>
-      <c r="F114" s="209"/>
-      <c r="G114" s="209"/>
-      <c r="I114" s="208" t="s">
+      <c r="E114" s="217"/>
+      <c r="F114" s="217"/>
+      <c r="G114" s="217"/>
+      <c r="I114" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="J114" s="208"/>
+      <c r="J114" s="216"/>
     </row>
     <row r="115" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A115" s="208"/>
-      <c r="B115" s="208"/>
-      <c r="D115" s="209"/>
-      <c r="E115" s="209"/>
-      <c r="F115" s="209"/>
-      <c r="G115" s="209"/>
-      <c r="I115" s="208"/>
-      <c r="J115" s="208"/>
+      <c r="A115" s="216"/>
+      <c r="B115" s="216"/>
+      <c r="D115" s="217"/>
+      <c r="E115" s="217"/>
+      <c r="F115" s="217"/>
+      <c r="G115" s="217"/>
+      <c r="I115" s="216"/>
+      <c r="J115" s="216"/>
     </row>
     <row r="116" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A116" s="208"/>
-      <c r="B116" s="208"/>
-      <c r="D116" s="209"/>
-      <c r="E116" s="209"/>
-      <c r="F116" s="209"/>
-      <c r="G116" s="209"/>
-      <c r="I116" s="208"/>
-      <c r="J116" s="208"/>
+      <c r="A116" s="216"/>
+      <c r="B116" s="216"/>
+      <c r="D116" s="217"/>
+      <c r="E116" s="217"/>
+      <c r="F116" s="217"/>
+      <c r="G116" s="217"/>
+      <c r="I116" s="216"/>
+      <c r="J116" s="216"/>
     </row>
     <row r="117" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A117" s="208"/>
-      <c r="B117" s="208"/>
-      <c r="D117" s="209"/>
-      <c r="E117" s="209"/>
-      <c r="F117" s="209"/>
-      <c r="G117" s="209"/>
-      <c r="I117" s="208"/>
-      <c r="J117" s="208"/>
+      <c r="A117" s="216"/>
+      <c r="B117" s="216"/>
+      <c r="D117" s="217"/>
+      <c r="E117" s="217"/>
+      <c r="F117" s="217"/>
+      <c r="G117" s="217"/>
+      <c r="I117" s="216"/>
+      <c r="J117" s="216"/>
     </row>
     <row r="118" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A118" s="208"/>
-      <c r="B118" s="208"/>
-      <c r="D118" s="209"/>
-      <c r="E118" s="209"/>
-      <c r="F118" s="209"/>
-      <c r="G118" s="209"/>
-      <c r="I118" s="208"/>
-      <c r="J118" s="208"/>
+      <c r="A118" s="216"/>
+      <c r="B118" s="216"/>
+      <c r="D118" s="217"/>
+      <c r="E118" s="217"/>
+      <c r="F118" s="217"/>
+      <c r="G118" s="217"/>
+      <c r="I118" s="216"/>
+      <c r="J118" s="216"/>
     </row>
     <row r="119" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A119" s="208"/>
-      <c r="B119" s="208"/>
-      <c r="D119" s="209"/>
-      <c r="E119" s="209"/>
-      <c r="F119" s="209"/>
-      <c r="G119" s="209"/>
-      <c r="I119" s="208"/>
-      <c r="J119" s="208"/>
+      <c r="A119" s="216"/>
+      <c r="B119" s="216"/>
+      <c r="D119" s="217"/>
+      <c r="E119" s="217"/>
+      <c r="F119" s="217"/>
+      <c r="G119" s="217"/>
+      <c r="I119" s="216"/>
+      <c r="J119" s="216"/>
     </row>
     <row r="120" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A120" s="208"/>
-      <c r="B120" s="208"/>
-      <c r="D120" s="209"/>
-      <c r="E120" s="209"/>
-      <c r="F120" s="209"/>
-      <c r="G120" s="209"/>
-      <c r="I120" s="208"/>
-      <c r="J120" s="208"/>
+      <c r="A120" s="216"/>
+      <c r="B120" s="216"/>
+      <c r="D120" s="217"/>
+      <c r="E120" s="217"/>
+      <c r="F120" s="217"/>
+      <c r="G120" s="217"/>
+      <c r="I120" s="216"/>
+      <c r="J120" s="216"/>
     </row>
     <row r="122" spans="1:10" ht="13.5" customHeight="1">
       <c r="A122" s="134" t="s">
@@ -34925,7 +34925,7 @@
       </c>
       <c r="E136" s="159"/>
       <c r="F136" s="161"/>
-      <c r="G136" s="196" t="s">
+      <c r="G136" s="205" t="s">
         <v>673</v>
       </c>
       <c r="H136" s="151"/>
@@ -35133,80 +35133,80 @@
       <c r="J151" s="80"/>
     </row>
     <row r="152" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A152" s="208" t="s">
+      <c r="A152" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B152" s="208"/>
-      <c r="D152" s="209" t="s">
+      <c r="B152" s="216"/>
+      <c r="D152" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E152" s="209"/>
-      <c r="F152" s="209"/>
-      <c r="G152" s="209"/>
-      <c r="I152" s="208" t="s">
+      <c r="E152" s="217"/>
+      <c r="F152" s="217"/>
+      <c r="G152" s="217"/>
+      <c r="I152" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="J152" s="208"/>
+      <c r="J152" s="216"/>
     </row>
     <row r="153" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A153" s="208"/>
-      <c r="B153" s="208"/>
-      <c r="D153" s="209"/>
-      <c r="E153" s="209"/>
-      <c r="F153" s="209"/>
-      <c r="G153" s="209"/>
-      <c r="I153" s="208"/>
-      <c r="J153" s="208"/>
+      <c r="A153" s="216"/>
+      <c r="B153" s="216"/>
+      <c r="D153" s="217"/>
+      <c r="E153" s="217"/>
+      <c r="F153" s="217"/>
+      <c r="G153" s="217"/>
+      <c r="I153" s="216"/>
+      <c r="J153" s="216"/>
     </row>
     <row r="154" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A154" s="208"/>
-      <c r="B154" s="208"/>
-      <c r="D154" s="209"/>
-      <c r="E154" s="209"/>
-      <c r="F154" s="209"/>
-      <c r="G154" s="209"/>
-      <c r="I154" s="208"/>
-      <c r="J154" s="208"/>
+      <c r="A154" s="216"/>
+      <c r="B154" s="216"/>
+      <c r="D154" s="217"/>
+      <c r="E154" s="217"/>
+      <c r="F154" s="217"/>
+      <c r="G154" s="217"/>
+      <c r="I154" s="216"/>
+      <c r="J154" s="216"/>
     </row>
     <row r="155" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A155" s="208"/>
-      <c r="B155" s="208"/>
-      <c r="D155" s="209"/>
-      <c r="E155" s="209"/>
-      <c r="F155" s="209"/>
-      <c r="G155" s="209"/>
-      <c r="I155" s="208"/>
-      <c r="J155" s="208"/>
+      <c r="A155" s="216"/>
+      <c r="B155" s="216"/>
+      <c r="D155" s="217"/>
+      <c r="E155" s="217"/>
+      <c r="F155" s="217"/>
+      <c r="G155" s="217"/>
+      <c r="I155" s="216"/>
+      <c r="J155" s="216"/>
     </row>
     <row r="156" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A156" s="208"/>
-      <c r="B156" s="208"/>
-      <c r="D156" s="209"/>
-      <c r="E156" s="209"/>
-      <c r="F156" s="209"/>
-      <c r="G156" s="209"/>
-      <c r="I156" s="208"/>
-      <c r="J156" s="208"/>
+      <c r="A156" s="216"/>
+      <c r="B156" s="216"/>
+      <c r="D156" s="217"/>
+      <c r="E156" s="217"/>
+      <c r="F156" s="217"/>
+      <c r="G156" s="217"/>
+      <c r="I156" s="216"/>
+      <c r="J156" s="216"/>
     </row>
     <row r="157" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A157" s="208"/>
-      <c r="B157" s="208"/>
-      <c r="D157" s="209"/>
-      <c r="E157" s="209"/>
-      <c r="F157" s="209"/>
-      <c r="G157" s="209"/>
-      <c r="I157" s="208"/>
-      <c r="J157" s="208"/>
+      <c r="A157" s="216"/>
+      <c r="B157" s="216"/>
+      <c r="D157" s="217"/>
+      <c r="E157" s="217"/>
+      <c r="F157" s="217"/>
+      <c r="G157" s="217"/>
+      <c r="I157" s="216"/>
+      <c r="J157" s="216"/>
     </row>
     <row r="158" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A158" s="208"/>
-      <c r="B158" s="208"/>
-      <c r="D158" s="209"/>
-      <c r="E158" s="209"/>
-      <c r="F158" s="209"/>
-      <c r="G158" s="209"/>
-      <c r="I158" s="208"/>
-      <c r="J158" s="208"/>
+      <c r="A158" s="216"/>
+      <c r="B158" s="216"/>
+      <c r="D158" s="217"/>
+      <c r="E158" s="217"/>
+      <c r="F158" s="217"/>
+      <c r="G158" s="217"/>
+      <c r="I158" s="216"/>
+      <c r="J158" s="216"/>
     </row>
     <row r="160" spans="1:10" ht="13.5" customHeight="1">
       <c r="A160" s="134" t="s">
@@ -35517,7 +35517,7 @@
       </c>
       <c r="E174" s="159"/>
       <c r="F174" s="161"/>
-      <c r="G174" s="196" t="s">
+      <c r="G174" s="205" t="s">
         <v>673</v>
       </c>
       <c r="H174" s="151"/>
@@ -35725,80 +35725,80 @@
       <c r="J189" s="80"/>
     </row>
     <row r="190" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A190" s="208" t="s">
+      <c r="A190" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B190" s="208"/>
-      <c r="D190" s="209" t="s">
+      <c r="B190" s="216"/>
+      <c r="D190" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E190" s="209"/>
-      <c r="F190" s="209"/>
-      <c r="G190" s="209"/>
-      <c r="I190" s="208" t="s">
+      <c r="E190" s="217"/>
+      <c r="F190" s="217"/>
+      <c r="G190" s="217"/>
+      <c r="I190" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="J190" s="208"/>
+      <c r="J190" s="216"/>
     </row>
     <row r="191" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A191" s="208"/>
-      <c r="B191" s="208"/>
-      <c r="D191" s="209"/>
-      <c r="E191" s="209"/>
-      <c r="F191" s="209"/>
-      <c r="G191" s="209"/>
-      <c r="I191" s="208"/>
-      <c r="J191" s="208"/>
+      <c r="A191" s="216"/>
+      <c r="B191" s="216"/>
+      <c r="D191" s="217"/>
+      <c r="E191" s="217"/>
+      <c r="F191" s="217"/>
+      <c r="G191" s="217"/>
+      <c r="I191" s="216"/>
+      <c r="J191" s="216"/>
     </row>
     <row r="192" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A192" s="208"/>
-      <c r="B192" s="208"/>
-      <c r="D192" s="209"/>
-      <c r="E192" s="209"/>
-      <c r="F192" s="209"/>
-      <c r="G192" s="209"/>
-      <c r="I192" s="208"/>
-      <c r="J192" s="208"/>
+      <c r="A192" s="216"/>
+      <c r="B192" s="216"/>
+      <c r="D192" s="217"/>
+      <c r="E192" s="217"/>
+      <c r="F192" s="217"/>
+      <c r="G192" s="217"/>
+      <c r="I192" s="216"/>
+      <c r="J192" s="216"/>
     </row>
     <row r="193" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A193" s="208"/>
-      <c r="B193" s="208"/>
-      <c r="D193" s="209"/>
-      <c r="E193" s="209"/>
-      <c r="F193" s="209"/>
-      <c r="G193" s="209"/>
-      <c r="I193" s="208"/>
-      <c r="J193" s="208"/>
+      <c r="A193" s="216"/>
+      <c r="B193" s="216"/>
+      <c r="D193" s="217"/>
+      <c r="E193" s="217"/>
+      <c r="F193" s="217"/>
+      <c r="G193" s="217"/>
+      <c r="I193" s="216"/>
+      <c r="J193" s="216"/>
     </row>
     <row r="194" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A194" s="208"/>
-      <c r="B194" s="208"/>
-      <c r="D194" s="209"/>
-      <c r="E194" s="209"/>
-      <c r="F194" s="209"/>
-      <c r="G194" s="209"/>
-      <c r="I194" s="208"/>
-      <c r="J194" s="208"/>
+      <c r="A194" s="216"/>
+      <c r="B194" s="216"/>
+      <c r="D194" s="217"/>
+      <c r="E194" s="217"/>
+      <c r="F194" s="217"/>
+      <c r="G194" s="217"/>
+      <c r="I194" s="216"/>
+      <c r="J194" s="216"/>
     </row>
     <row r="195" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A195" s="208"/>
-      <c r="B195" s="208"/>
-      <c r="D195" s="209"/>
-      <c r="E195" s="209"/>
-      <c r="F195" s="209"/>
-      <c r="G195" s="209"/>
-      <c r="I195" s="208"/>
-      <c r="J195" s="208"/>
+      <c r="A195" s="216"/>
+      <c r="B195" s="216"/>
+      <c r="D195" s="217"/>
+      <c r="E195" s="217"/>
+      <c r="F195" s="217"/>
+      <c r="G195" s="217"/>
+      <c r="I195" s="216"/>
+      <c r="J195" s="216"/>
     </row>
     <row r="196" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A196" s="208"/>
-      <c r="B196" s="208"/>
-      <c r="D196" s="209"/>
-      <c r="E196" s="209"/>
-      <c r="F196" s="209"/>
-      <c r="G196" s="209"/>
-      <c r="I196" s="208"/>
-      <c r="J196" s="208"/>
+      <c r="A196" s="216"/>
+      <c r="B196" s="216"/>
+      <c r="D196" s="217"/>
+      <c r="E196" s="217"/>
+      <c r="F196" s="217"/>
+      <c r="G196" s="217"/>
+      <c r="I196" s="216"/>
+      <c r="J196" s="216"/>
     </row>
     <row r="199" spans="1:10" ht="13.5" customHeight="1">
       <c r="A199" s="134" t="s">
@@ -36384,30 +36384,30 @@
       <c r="J239" s="152"/>
     </row>
     <row r="242" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A242" s="210" t="s">
+      <c r="A242" s="218" t="s">
         <v>131</v>
       </c>
-      <c r="B242" s="210"/>
-      <c r="C242" s="210"/>
-      <c r="D242" s="210"/>
-      <c r="E242" s="210"/>
-      <c r="F242" s="210"/>
-      <c r="G242" s="210"/>
-      <c r="H242" s="210"/>
-      <c r="I242" s="210"/>
-      <c r="J242" s="210"/>
+      <c r="B242" s="218"/>
+      <c r="C242" s="218"/>
+      <c r="D242" s="218"/>
+      <c r="E242" s="218"/>
+      <c r="F242" s="218"/>
+      <c r="G242" s="218"/>
+      <c r="H242" s="218"/>
+      <c r="I242" s="218"/>
+      <c r="J242" s="218"/>
     </row>
     <row r="243" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A243" s="210"/>
-      <c r="B243" s="210"/>
-      <c r="C243" s="210"/>
-      <c r="D243" s="210"/>
-      <c r="E243" s="210"/>
-      <c r="F243" s="210"/>
-      <c r="G243" s="210"/>
-      <c r="H243" s="210"/>
-      <c r="I243" s="210"/>
-      <c r="J243" s="210"/>
+      <c r="A243" s="218"/>
+      <c r="B243" s="218"/>
+      <c r="C243" s="218"/>
+      <c r="D243" s="218"/>
+      <c r="E243" s="218"/>
+      <c r="F243" s="218"/>
+      <c r="G243" s="218"/>
+      <c r="H243" s="218"/>
+      <c r="I243" s="218"/>
+      <c r="J243" s="218"/>
     </row>
     <row r="244" spans="1:10" ht="13.5" customHeight="1">
       <c r="A244" s="80"/>
@@ -36592,20 +36592,20 @@
       <c r="J258" s="80"/>
     </row>
     <row r="259" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A259" s="206" t="s">
+      <c r="A259" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="B259" s="206"/>
-      <c r="C259" s="206"/>
+      <c r="B259" s="214"/>
+      <c r="C259" s="214"/>
       <c r="D259" s="80"/>
       <c r="E259" s="80"/>
       <c r="F259" s="80"/>
       <c r="G259" s="80"/>
-      <c r="H259" s="206" t="s">
+      <c r="H259" s="214" t="s">
         <v>405</v>
       </c>
-      <c r="I259" s="206"/>
-      <c r="J259" s="206"/>
+      <c r="I259" s="214"/>
+      <c r="J259" s="214"/>
     </row>
     <row r="260" spans="1:10" ht="13.5" customHeight="1">
       <c r="A260" s="80"/>
@@ -36809,16 +36809,20 @@
     </row>
   </sheetData>
   <mergeCells count="283">
-    <mergeCell ref="F200:J201"/>
-    <mergeCell ref="F221:J222"/>
-    <mergeCell ref="B202:D204"/>
-    <mergeCell ref="B205:D207"/>
-    <mergeCell ref="E202:E207"/>
-    <mergeCell ref="E223:E228"/>
-    <mergeCell ref="F202:J207"/>
-    <mergeCell ref="F223:J228"/>
-    <mergeCell ref="B223:D225"/>
-    <mergeCell ref="B226:D228"/>
+    <mergeCell ref="A220:J220"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="E213:E215"/>
+    <mergeCell ref="F213:F218"/>
+    <mergeCell ref="G213:J213"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="G214:J216"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="E216:E218"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="G217:J218"/>
+    <mergeCell ref="A218:C218"/>
     <mergeCell ref="A170:C171"/>
     <mergeCell ref="D170:D171"/>
     <mergeCell ref="E170:F171"/>
@@ -36869,6 +36873,10 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A132:C133"/>
+    <mergeCell ref="A94:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A114:B120"/>
+    <mergeCell ref="A125:C125"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H28:J28"/>
@@ -36884,6 +36892,15 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:J25"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:J35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="F16:G17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:G19"/>
@@ -36900,15 +36917,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:J35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:J40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:J41"/>
@@ -36967,7 +36975,6 @@
     <mergeCell ref="E68:E72"/>
     <mergeCell ref="F68:F72"/>
     <mergeCell ref="D69:D70"/>
-    <mergeCell ref="A94:C95"/>
     <mergeCell ref="D94:D95"/>
     <mergeCell ref="E94:E95"/>
     <mergeCell ref="F94:F95"/>
@@ -36978,7 +36985,6 @@
     <mergeCell ref="D85:G91"/>
     <mergeCell ref="I85:J91"/>
     <mergeCell ref="A93:J93"/>
-    <mergeCell ref="A96:C96"/>
     <mergeCell ref="E96:E98"/>
     <mergeCell ref="F96:F98"/>
     <mergeCell ref="A97:C97"/>
@@ -36988,7 +36994,6 @@
     <mergeCell ref="F99:F101"/>
     <mergeCell ref="A100:C100"/>
     <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A114:B120"/>
     <mergeCell ref="D114:G120"/>
     <mergeCell ref="I114:J120"/>
     <mergeCell ref="A122:J122"/>
@@ -36998,7 +37003,6 @@
     <mergeCell ref="F123:F124"/>
     <mergeCell ref="G123:H123"/>
     <mergeCell ref="I123:J123"/>
-    <mergeCell ref="A125:C125"/>
     <mergeCell ref="E125:E127"/>
     <mergeCell ref="F125:F127"/>
     <mergeCell ref="A126:C126"/>
@@ -37041,20 +37045,11 @@
     <mergeCell ref="E211:E212"/>
     <mergeCell ref="F211:J211"/>
     <mergeCell ref="G212:J212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="E213:E215"/>
-    <mergeCell ref="F213:F218"/>
-    <mergeCell ref="G213:J213"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="G214:J216"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="E216:E218"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="G217:J218"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A220:J220"/>
-    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="F200:J201"/>
+    <mergeCell ref="B202:D204"/>
+    <mergeCell ref="B205:D207"/>
+    <mergeCell ref="E202:E207"/>
+    <mergeCell ref="F202:J207"/>
     <mergeCell ref="B221:D222"/>
     <mergeCell ref="E221:E222"/>
     <mergeCell ref="A230:J230"/>
@@ -37064,6 +37059,11 @@
     <mergeCell ref="F231:J231"/>
     <mergeCell ref="F232:G232"/>
     <mergeCell ref="H232:J232"/>
+    <mergeCell ref="F221:J222"/>
+    <mergeCell ref="E223:E228"/>
+    <mergeCell ref="F223:J228"/>
+    <mergeCell ref="B223:D225"/>
+    <mergeCell ref="B226:D228"/>
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A238:C238"/>
     <mergeCell ref="A239:J239"/>
@@ -37451,48 +37451,48 @@
       <c r="J23" s="138"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A24" s="236" t="s">
+      <c r="A24" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="237" t="s">
+      <c r="B24" s="238" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="237"/>
-      <c r="D24" s="237" t="s">
+      <c r="C24" s="238"/>
+      <c r="D24" s="238" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="237" t="s">
+      <c r="E24" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="237"/>
-      <c r="G24" s="236" t="s">
+      <c r="F24" s="238"/>
+      <c r="G24" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="227" t="s">
+      <c r="H24" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="228"/>
-      <c r="J24" s="229"/>
+      <c r="I24" s="229"/>
+      <c r="J24" s="230"/>
     </row>
     <row r="25" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A25" s="237"/>
+      <c r="A25" s="238"/>
       <c r="B25" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="237"/>
+      <c r="D25" s="238"/>
       <c r="E25" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="237"/>
-      <c r="H25" s="230"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="232"/>
+      <c r="G25" s="238"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="233"/>
     </row>
     <row r="26" spans="1:10" ht="13.5" customHeight="1">
       <c r="A26" s="13" t="s">
@@ -37516,11 +37516,11 @@
       <c r="G26" s="13">
         <v>175</v>
       </c>
-      <c r="H26" s="233" t="s">
+      <c r="H26" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="234"/>
-      <c r="J26" s="235"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="236"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" customHeight="1">
       <c r="A27" s="13" t="s">
@@ -37544,11 +37544,11 @@
       <c r="G27" s="13">
         <v>388</v>
       </c>
-      <c r="H27" s="233" t="s">
+      <c r="H27" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="234"/>
-      <c r="J27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="236"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
       <c r="A28" s="13" t="s">
@@ -37572,11 +37572,11 @@
       <c r="G28" s="13">
         <v>679</v>
       </c>
-      <c r="H28" s="233" t="s">
+      <c r="H28" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="234"/>
-      <c r="J28" s="235"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="236"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1">
       <c r="A29" s="13" t="s">
@@ -37600,11 +37600,11 @@
       <c r="G29" s="13">
         <v>873</v>
       </c>
-      <c r="H29" s="233" t="s">
+      <c r="H29" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="234"/>
-      <c r="J29" s="235"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="236"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1">
       <c r="A30" s="14" t="s">
@@ -37628,25 +37628,25 @@
       <c r="G30" s="13">
         <v>873</v>
       </c>
-      <c r="H30" s="233" t="s">
+      <c r="H30" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="234"/>
-      <c r="J30" s="235"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="236"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="226" t="s">
+      <c r="A31" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="226"/>
-      <c r="C31" s="226"/>
-      <c r="D31" s="226"/>
-      <c r="E31" s="226"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="226"/>
-      <c r="H31" s="226"/>
-      <c r="I31" s="226"/>
-      <c r="J31" s="226"/>
+      <c r="B31" s="227"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="227"/>
+      <c r="G31" s="227"/>
+      <c r="H31" s="227"/>
+      <c r="I31" s="227"/>
+      <c r="J31" s="227"/>
     </row>
     <row r="33" spans="1:14" ht="13.5" customHeight="1">
       <c r="A33" s="15" t="s">
@@ -37990,10 +37990,10 @@
       <c r="A53" s="15">
         <v>20</v>
       </c>
-      <c r="B53" s="223" t="s">
+      <c r="B53" s="224" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="224"/>
+      <c r="C53" s="225"/>
       <c r="D53" s="168" t="s">
         <v>103</v>
       </c>
@@ -38009,10 +38009,10 @@
       <c r="A54" s="15">
         <v>35</v>
       </c>
-      <c r="B54" s="223" t="s">
+      <c r="B54" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="224"/>
+      <c r="C54" s="225"/>
       <c r="D54" s="168" t="s">
         <v>147</v>
       </c>
@@ -38302,13 +38302,13 @@
       <c r="G70" s="134">
         <v>232</v>
       </c>
-      <c r="H70" s="207">
+      <c r="H70" s="215">
         <v>236</v>
       </c>
       <c r="I70" s="134">
         <v>438</v>
       </c>
-      <c r="J70" s="207">
+      <c r="J70" s="215">
         <v>447</v>
       </c>
     </row>
@@ -38322,9 +38322,9 @@
       <c r="E71" s="134"/>
       <c r="F71" s="134"/>
       <c r="G71" s="134"/>
-      <c r="H71" s="207"/>
+      <c r="H71" s="215"/>
       <c r="I71" s="134"/>
-      <c r="J71" s="207"/>
+      <c r="J71" s="215"/>
     </row>
     <row r="72" spans="1:10" ht="13.5" customHeight="1">
       <c r="A72" s="150" t="s">
@@ -38340,18 +38340,18 @@
       <c r="G72" s="134">
         <v>258</v>
       </c>
-      <c r="H72" s="207">
+      <c r="H72" s="215">
         <v>263</v>
       </c>
       <c r="I72" s="134">
         <v>464</v>
       </c>
-      <c r="J72" s="207">
+      <c r="J72" s="215">
         <v>473</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A73" s="196" t="s">
+      <c r="A73" s="205" t="s">
         <v>112</v>
       </c>
       <c r="B73" s="151"/>
@@ -38360,9 +38360,9 @@
       <c r="E73" s="134"/>
       <c r="F73" s="134"/>
       <c r="G73" s="134"/>
-      <c r="H73" s="207"/>
+      <c r="H73" s="215"/>
       <c r="I73" s="134"/>
-      <c r="J73" s="207"/>
+      <c r="J73" s="215"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="18"/>
@@ -39685,7 +39685,7 @@
       </c>
       <c r="E137" s="159"/>
       <c r="F137" s="161"/>
-      <c r="G137" s="196" t="s">
+      <c r="G137" s="205" t="s">
         <v>600</v>
       </c>
       <c r="H137" s="151"/>
@@ -40643,7 +40643,7 @@
       </c>
       <c r="E175" s="159"/>
       <c r="F175" s="161"/>
-      <c r="G175" s="196" t="s">
+      <c r="G175" s="205" t="s">
         <v>600</v>
       </c>
       <c r="H175" s="151"/>
@@ -41867,13 +41867,13 @@
       <c r="J267" s="123"/>
     </row>
     <row r="268" spans="1:10">
-      <c r="A268" s="203" t="s">
+      <c r="A268" s="211" t="s">
         <v>233</v>
       </c>
-      <c r="B268" s="203"/>
-      <c r="C268" s="203"/>
-      <c r="D268" s="203"/>
-      <c r="E268" s="203"/>
+      <c r="B268" s="211"/>
+      <c r="C268" s="211"/>
+      <c r="D268" s="211"/>
+      <c r="E268" s="211"/>
       <c r="F268" s="123" t="s">
         <v>234</v>
       </c>
@@ -41883,11 +41883,11 @@
       <c r="J268" s="123"/>
     </row>
     <row r="269" spans="1:10">
-      <c r="A269" s="203"/>
-      <c r="B269" s="203"/>
-      <c r="C269" s="203"/>
-      <c r="D269" s="203"/>
-      <c r="E269" s="203"/>
+      <c r="A269" s="211"/>
+      <c r="B269" s="211"/>
+      <c r="C269" s="211"/>
+      <c r="D269" s="211"/>
+      <c r="E269" s="211"/>
       <c r="F269" s="123"/>
       <c r="G269" s="123"/>
       <c r="H269" s="123"/>
@@ -41895,11 +41895,11 @@
       <c r="J269" s="123"/>
     </row>
     <row r="270" spans="1:10">
-      <c r="A270" s="203"/>
-      <c r="B270" s="203"/>
-      <c r="C270" s="203"/>
-      <c r="D270" s="203"/>
-      <c r="E270" s="203"/>
+      <c r="A270" s="211"/>
+      <c r="B270" s="211"/>
+      <c r="C270" s="211"/>
+      <c r="D270" s="211"/>
+      <c r="E270" s="211"/>
       <c r="F270" s="123"/>
       <c r="G270" s="123"/>
       <c r="H270" s="123"/>
@@ -41907,11 +41907,11 @@
       <c r="J270" s="123"/>
     </row>
     <row r="271" spans="1:10">
-      <c r="A271" s="203"/>
-      <c r="B271" s="203"/>
-      <c r="C271" s="203"/>
-      <c r="D271" s="203"/>
-      <c r="E271" s="203"/>
+      <c r="A271" s="211"/>
+      <c r="B271" s="211"/>
+      <c r="C271" s="211"/>
+      <c r="D271" s="211"/>
+      <c r="E271" s="211"/>
       <c r="F271" s="123"/>
       <c r="G271" s="123"/>
       <c r="H271" s="123"/>
@@ -41919,11 +41919,11 @@
       <c r="J271" s="123"/>
     </row>
     <row r="272" spans="1:10">
-      <c r="A272" s="225"/>
-      <c r="B272" s="225"/>
-      <c r="C272" s="225"/>
-      <c r="D272" s="225"/>
-      <c r="E272" s="225"/>
+      <c r="A272" s="226"/>
+      <c r="B272" s="226"/>
+      <c r="C272" s="226"/>
+      <c r="D272" s="226"/>
+      <c r="E272" s="226"/>
       <c r="F272" s="123"/>
       <c r="G272" s="123"/>
       <c r="H272" s="123"/>
@@ -42239,8 +42239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66:E68"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="F269" sqref="F269:J273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -42251,7 +42251,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="243" t="s">
         <v>491</v>
       </c>
       <c r="B1" s="123" t="s">
@@ -42279,11 +42279,11 @@
       <c r="J1" s="184"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="242"/>
-      <c r="B2" s="202" t="s">
+      <c r="A2" s="244"/>
+      <c r="B2" s="210" t="s">
         <v>493</v>
       </c>
-      <c r="C2" s="203"/>
+      <c r="C2" s="211"/>
       <c r="D2" s="93" t="s">
         <v>157</v>
       </c>
@@ -42305,7 +42305,7 @@
       <c r="J2" s="184"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A3" s="242"/>
+      <c r="A3" s="244"/>
       <c r="B3" s="95"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
@@ -42317,7 +42317,7 @@
       <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="242"/>
+      <c r="A4" s="244"/>
       <c r="B4" s="95"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -42329,7 +42329,7 @@
       <c r="J4" s="72"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="242"/>
+      <c r="A5" s="244"/>
       <c r="B5" s="95"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -42341,7 +42341,7 @@
       <c r="J5" s="72"/>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A6" s="242"/>
+      <c r="A6" s="244"/>
       <c r="B6" s="95"/>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
@@ -42353,7 +42353,7 @@
       <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A7" s="242"/>
+      <c r="A7" s="244"/>
       <c r="B7" s="95"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
@@ -42365,7 +42365,7 @@
       <c r="J7" s="72"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A8" s="242"/>
+      <c r="A8" s="244"/>
       <c r="B8" s="95"/>
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
@@ -42383,7 +42383,7 @@
       <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A9" s="242"/>
+      <c r="A9" s="244"/>
       <c r="B9" s="95"/>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
@@ -42401,7 +42401,7 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A10" s="242"/>
+      <c r="A10" s="244"/>
       <c r="B10" s="95"/>
       <c r="C10" s="72"/>
       <c r="E10" s="94" t="s">
@@ -42418,11 +42418,11 @@
       <c r="J10" s="72"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A11" s="242"/>
+      <c r="A11" s="244"/>
       <c r="B11" s="95"/>
       <c r="C11" s="72"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="205"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="213"/>
       <c r="F11" s="72"/>
       <c r="G11" s="72"/>
       <c r="H11" s="72"/>
@@ -42430,7 +42430,7 @@
       <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="242"/>
+      <c r="A12" s="244"/>
       <c r="B12" s="95"/>
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
@@ -42442,127 +42442,127 @@
       <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A13" s="242"/>
+      <c r="A13" s="244"/>
       <c r="B13" s="95"/>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
       <c r="E13" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="199" t="s">
+      <c r="F13" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="199"/>
+      <c r="G13" s="208"/>
       <c r="H13" s="72"/>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A14" s="242"/>
+      <c r="A14" s="244"/>
       <c r="B14" s="95"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="199" t="s">
+      <c r="E14" s="206"/>
+      <c r="F14" s="208" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="199"/>
+      <c r="G14" s="208"/>
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
       <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A15" s="242"/>
+      <c r="A15" s="244"/>
       <c r="B15" s="95"/>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="208"/>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A16" s="242"/>
+      <c r="A16" s="244"/>
       <c r="B16" s="95"/>
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="199" t="s">
+      <c r="E16" s="206"/>
+      <c r="F16" s="208" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="199"/>
+      <c r="G16" s="208"/>
       <c r="H16" s="72"/>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A17" s="242"/>
+      <c r="A17" s="244"/>
       <c r="B17" s="95"/>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
       <c r="J17" s="72"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A18" s="242"/>
+      <c r="A18" s="244"/>
       <c r="B18" s="95"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="199" t="s">
+      <c r="E18" s="206"/>
+      <c r="F18" s="208" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="199"/>
+      <c r="G18" s="208"/>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A19" s="242"/>
+      <c r="A19" s="244"/>
       <c r="B19" s="95"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="208"/>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A20" s="242"/>
+      <c r="A20" s="244"/>
       <c r="B20" s="95"/>
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="199" t="s">
+      <c r="E20" s="206"/>
+      <c r="F20" s="208" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="199"/>
+      <c r="G20" s="208"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A21" s="242"/>
+      <c r="A21" s="244"/>
       <c r="B21" s="95"/>
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A22" s="242"/>
+      <c r="A22" s="244"/>
       <c r="B22" s="95"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
@@ -42574,17 +42574,17 @@
       <c r="J22" s="72"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A23" s="242"/>
-      <c r="B23" s="206" t="s">
+      <c r="A23" s="244"/>
+      <c r="B23" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206"/>
-      <c r="H23" s="206" t="s">
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
+      <c r="H23" s="214" t="s">
         <v>408</v>
       </c>
-      <c r="I23" s="206"/>
-      <c r="J23" s="206"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="214"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" customHeight="1">
       <c r="A24" s="177" t="s">
@@ -42652,11 +42652,11 @@
       <c r="G26" s="104">
         <v>245</v>
       </c>
-      <c r="H26" s="243" t="s">
+      <c r="H26" s="242" t="s">
         <v>499</v>
       </c>
-      <c r="I26" s="243"/>
-      <c r="J26" s="243"/>
+      <c r="I26" s="242"/>
+      <c r="J26" s="242"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" customHeight="1">
       <c r="A27" s="104" t="s">
@@ -42680,11 +42680,11 @@
       <c r="G27" s="104">
         <v>392</v>
       </c>
-      <c r="H27" s="243" t="s">
+      <c r="H27" s="242" t="s">
         <v>500</v>
       </c>
-      <c r="I27" s="243"/>
-      <c r="J27" s="243"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="242"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1">
       <c r="A28" s="104" t="s">
@@ -42708,11 +42708,11 @@
       <c r="G28" s="104">
         <v>686</v>
       </c>
-      <c r="H28" s="243" t="s">
+      <c r="H28" s="242" t="s">
         <v>501</v>
       </c>
-      <c r="I28" s="243"/>
-      <c r="J28" s="243"/>
+      <c r="I28" s="242"/>
+      <c r="J28" s="242"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1">
       <c r="A29" s="104" t="s">
@@ -42736,11 +42736,11 @@
       <c r="G29" s="104">
         <v>882</v>
       </c>
-      <c r="H29" s="243" t="s">
+      <c r="H29" s="242" t="s">
         <v>502</v>
       </c>
-      <c r="I29" s="243"/>
-      <c r="J29" s="243"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="242"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1">
       <c r="A30" s="104" t="s">
@@ -42764,11 +42764,11 @@
       <c r="G30" s="104">
         <v>882</v>
       </c>
-      <c r="H30" s="243" t="s">
+      <c r="H30" s="242" t="s">
         <v>503</v>
       </c>
-      <c r="I30" s="243"/>
-      <c r="J30" s="243"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="242"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1">
       <c r="A31" s="177" t="s">
@@ -42806,10 +42806,10 @@
       <c r="A34" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="244" t="s">
+      <c r="B34" s="221" t="s">
         <v>504</v>
       </c>
-      <c r="C34" s="244"/>
+      <c r="C34" s="221"/>
       <c r="D34" s="168" t="s">
         <v>508</v>
       </c>
@@ -42824,10 +42824,10 @@
       <c r="A35" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="244" t="s">
+      <c r="B35" s="221" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="244"/>
+      <c r="C35" s="221"/>
       <c r="D35" s="168" t="s">
         <v>150</v>
       </c>
@@ -42842,10 +42842,10 @@
       <c r="A36" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="244" t="s">
+      <c r="B36" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="244"/>
+      <c r="C36" s="221"/>
       <c r="D36" s="168" t="s">
         <v>151</v>
       </c>
@@ -42861,10 +42861,10 @@
       <c r="A37" s="103">
         <v>5</v>
       </c>
-      <c r="B37" s="244" t="s">
+      <c r="B37" s="221" t="s">
         <v>505</v>
       </c>
-      <c r="C37" s="244"/>
+      <c r="C37" s="221"/>
       <c r="D37" s="168" t="s">
         <v>510</v>
       </c>
@@ -42880,10 +42880,10 @@
       <c r="A38" s="103">
         <v>10</v>
       </c>
-      <c r="B38" s="244" t="s">
+      <c r="B38" s="221" t="s">
         <v>506</v>
       </c>
-      <c r="C38" s="244"/>
+      <c r="C38" s="221"/>
       <c r="D38" s="168" t="s">
         <v>509</v>
       </c>
@@ -42899,10 +42899,10 @@
       <c r="A39" s="103">
         <v>20</v>
       </c>
-      <c r="B39" s="244" t="s">
+      <c r="B39" s="221" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="244"/>
+      <c r="C39" s="221"/>
       <c r="D39" s="168" t="s">
         <v>512</v>
       </c>
@@ -42918,10 +42918,10 @@
       <c r="A40" s="103">
         <v>35</v>
       </c>
-      <c r="B40" s="244" t="s">
+      <c r="B40" s="221" t="s">
         <v>507</v>
       </c>
-      <c r="C40" s="244"/>
+      <c r="C40" s="221"/>
       <c r="D40" s="168" t="s">
         <v>511</v>
       </c>
@@ -42937,10 +42937,10 @@
       <c r="A41" s="103">
         <v>50</v>
       </c>
-      <c r="B41" s="244" t="s">
+      <c r="B41" s="221" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="244"/>
+      <c r="C41" s="221"/>
       <c r="D41" s="168" t="s">
         <v>192</v>
       </c>
@@ -42956,10 +42956,10 @@
       <c r="A42" s="103">
         <v>65</v>
       </c>
-      <c r="B42" s="244" t="s">
+      <c r="B42" s="221" t="s">
         <v>505</v>
       </c>
-      <c r="C42" s="244"/>
+      <c r="C42" s="221"/>
       <c r="D42" s="168" t="s">
         <v>191</v>
       </c>
@@ -43311,11 +43311,11 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A66" s="238" t="s">
+      <c r="A66" s="239" t="s">
         <v>523</v>
       </c>
-      <c r="B66" s="239"/>
-      <c r="C66" s="240"/>
+      <c r="B66" s="240"/>
+      <c r="C66" s="241"/>
       <c r="D66" s="115">
         <v>40</v>
       </c>
@@ -43339,11 +43339,11 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A67" s="238" t="s">
+      <c r="A67" s="239" t="s">
         <v>524</v>
       </c>
-      <c r="B67" s="239"/>
-      <c r="C67" s="240"/>
+      <c r="B67" s="240"/>
+      <c r="C67" s="241"/>
       <c r="D67" s="115">
         <v>50</v>
       </c>
@@ -43363,11 +43363,11 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A68" s="238" t="s">
+      <c r="A68" s="239" t="s">
         <v>525</v>
       </c>
-      <c r="B68" s="239"/>
-      <c r="C68" s="240"/>
+      <c r="B68" s="240"/>
+      <c r="C68" s="241"/>
       <c r="D68" s="115">
         <v>60</v>
       </c>
@@ -43387,11 +43387,11 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A69" s="238" t="s">
+      <c r="A69" s="239" t="s">
         <v>526</v>
       </c>
-      <c r="B69" s="239"/>
-      <c r="C69" s="240"/>
+      <c r="B69" s="240"/>
+      <c r="C69" s="241"/>
       <c r="D69" s="115">
         <v>70</v>
       </c>
@@ -43415,11 +43415,11 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A70" s="238" t="s">
+      <c r="A70" s="239" t="s">
         <v>527</v>
       </c>
-      <c r="B70" s="239"/>
-      <c r="C70" s="240"/>
+      <c r="B70" s="240"/>
+      <c r="C70" s="241"/>
       <c r="D70" s="245">
         <v>75</v>
       </c>
@@ -43439,11 +43439,11 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A71" s="238" t="s">
+      <c r="A71" s="239" t="s">
         <v>529</v>
       </c>
-      <c r="B71" s="239"/>
-      <c r="C71" s="240"/>
+      <c r="B71" s="240"/>
+      <c r="C71" s="241"/>
       <c r="D71" s="245"/>
       <c r="E71" s="245"/>
       <c r="F71" s="245"/>
@@ -43453,11 +43453,11 @@
       <c r="J71" s="246"/>
     </row>
     <row r="72" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A72" s="238" t="s">
+      <c r="A72" s="239" t="s">
         <v>528</v>
       </c>
-      <c r="B72" s="239"/>
-      <c r="C72" s="240"/>
+      <c r="B72" s="240"/>
+      <c r="C72" s="241"/>
       <c r="D72" s="245">
         <v>80</v>
       </c>
@@ -43477,11 +43477,11 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A73" s="238" t="s">
+      <c r="A73" s="239" t="s">
         <v>530</v>
       </c>
-      <c r="B73" s="239"/>
-      <c r="C73" s="240"/>
+      <c r="B73" s="240"/>
+      <c r="C73" s="241"/>
       <c r="D73" s="245"/>
       <c r="E73" s="245"/>
       <c r="F73" s="245"/>
@@ -43635,80 +43635,80 @@
       <c r="J85" s="80"/>
     </row>
     <row r="86" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A86" s="208" t="s">
+      <c r="A86" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B86" s="208"/>
-      <c r="D86" s="209" t="s">
+      <c r="B86" s="216"/>
+      <c r="D86" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E86" s="209"/>
-      <c r="F86" s="209"/>
-      <c r="G86" s="209"/>
-      <c r="I86" s="208" t="s">
+      <c r="E86" s="217"/>
+      <c r="F86" s="217"/>
+      <c r="G86" s="217"/>
+      <c r="I86" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="J86" s="208"/>
+      <c r="J86" s="216"/>
     </row>
     <row r="87" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A87" s="208"/>
-      <c r="B87" s="208"/>
-      <c r="D87" s="209"/>
-      <c r="E87" s="209"/>
-      <c r="F87" s="209"/>
-      <c r="G87" s="209"/>
-      <c r="I87" s="208"/>
-      <c r="J87" s="208"/>
+      <c r="A87" s="216"/>
+      <c r="B87" s="216"/>
+      <c r="D87" s="217"/>
+      <c r="E87" s="217"/>
+      <c r="F87" s="217"/>
+      <c r="G87" s="217"/>
+      <c r="I87" s="216"/>
+      <c r="J87" s="216"/>
     </row>
     <row r="88" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A88" s="208"/>
-      <c r="B88" s="208"/>
-      <c r="D88" s="209"/>
-      <c r="E88" s="209"/>
-      <c r="F88" s="209"/>
-      <c r="G88" s="209"/>
-      <c r="I88" s="208"/>
-      <c r="J88" s="208"/>
+      <c r="A88" s="216"/>
+      <c r="B88" s="216"/>
+      <c r="D88" s="217"/>
+      <c r="E88" s="217"/>
+      <c r="F88" s="217"/>
+      <c r="G88" s="217"/>
+      <c r="I88" s="216"/>
+      <c r="J88" s="216"/>
     </row>
     <row r="89" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A89" s="208"/>
-      <c r="B89" s="208"/>
-      <c r="D89" s="209"/>
-      <c r="E89" s="209"/>
-      <c r="F89" s="209"/>
-      <c r="G89" s="209"/>
-      <c r="I89" s="208"/>
-      <c r="J89" s="208"/>
+      <c r="A89" s="216"/>
+      <c r="B89" s="216"/>
+      <c r="D89" s="217"/>
+      <c r="E89" s="217"/>
+      <c r="F89" s="217"/>
+      <c r="G89" s="217"/>
+      <c r="I89" s="216"/>
+      <c r="J89" s="216"/>
     </row>
     <row r="90" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A90" s="208"/>
-      <c r="B90" s="208"/>
-      <c r="D90" s="209"/>
-      <c r="E90" s="209"/>
-      <c r="F90" s="209"/>
-      <c r="G90" s="209"/>
-      <c r="I90" s="208"/>
-      <c r="J90" s="208"/>
+      <c r="A90" s="216"/>
+      <c r="B90" s="216"/>
+      <c r="D90" s="217"/>
+      <c r="E90" s="217"/>
+      <c r="F90" s="217"/>
+      <c r="G90" s="217"/>
+      <c r="I90" s="216"/>
+      <c r="J90" s="216"/>
     </row>
     <row r="91" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A91" s="208"/>
-      <c r="B91" s="208"/>
-      <c r="D91" s="209"/>
-      <c r="E91" s="209"/>
-      <c r="F91" s="209"/>
-      <c r="G91" s="209"/>
-      <c r="I91" s="208"/>
-      <c r="J91" s="208"/>
+      <c r="A91" s="216"/>
+      <c r="B91" s="216"/>
+      <c r="D91" s="217"/>
+      <c r="E91" s="217"/>
+      <c r="F91" s="217"/>
+      <c r="G91" s="217"/>
+      <c r="I91" s="216"/>
+      <c r="J91" s="216"/>
     </row>
     <row r="92" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A92" s="208"/>
-      <c r="B92" s="208"/>
-      <c r="D92" s="209"/>
-      <c r="E92" s="209"/>
-      <c r="F92" s="209"/>
-      <c r="G92" s="209"/>
-      <c r="I92" s="208"/>
-      <c r="J92" s="208"/>
+      <c r="A92" s="216"/>
+      <c r="B92" s="216"/>
+      <c r="D92" s="217"/>
+      <c r="E92" s="217"/>
+      <c r="F92" s="217"/>
+      <c r="G92" s="217"/>
+      <c r="I92" s="216"/>
+      <c r="J92" s="216"/>
     </row>
     <row r="94" spans="1:10" ht="13.5" customHeight="1">
       <c r="A94" s="134" t="s">
@@ -44065,80 +44065,80 @@
       <c r="J114" s="80"/>
     </row>
     <row r="115" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A115" s="208" t="s">
+      <c r="A115" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B115" s="208"/>
-      <c r="D115" s="209" t="s">
+      <c r="B115" s="216"/>
+      <c r="D115" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E115" s="209"/>
-      <c r="F115" s="209"/>
-      <c r="G115" s="209"/>
-      <c r="I115" s="208" t="s">
+      <c r="E115" s="217"/>
+      <c r="F115" s="217"/>
+      <c r="G115" s="217"/>
+      <c r="I115" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="J115" s="208"/>
+      <c r="J115" s="216"/>
     </row>
     <row r="116" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A116" s="208"/>
-      <c r="B116" s="208"/>
-      <c r="D116" s="209"/>
-      <c r="E116" s="209"/>
-      <c r="F116" s="209"/>
-      <c r="G116" s="209"/>
-      <c r="I116" s="208"/>
-      <c r="J116" s="208"/>
+      <c r="A116" s="216"/>
+      <c r="B116" s="216"/>
+      <c r="D116" s="217"/>
+      <c r="E116" s="217"/>
+      <c r="F116" s="217"/>
+      <c r="G116" s="217"/>
+      <c r="I116" s="216"/>
+      <c r="J116" s="216"/>
     </row>
     <row r="117" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A117" s="208"/>
-      <c r="B117" s="208"/>
-      <c r="D117" s="209"/>
-      <c r="E117" s="209"/>
-      <c r="F117" s="209"/>
-      <c r="G117" s="209"/>
-      <c r="I117" s="208"/>
-      <c r="J117" s="208"/>
+      <c r="A117" s="216"/>
+      <c r="B117" s="216"/>
+      <c r="D117" s="217"/>
+      <c r="E117" s="217"/>
+      <c r="F117" s="217"/>
+      <c r="G117" s="217"/>
+      <c r="I117" s="216"/>
+      <c r="J117" s="216"/>
     </row>
     <row r="118" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A118" s="208"/>
-      <c r="B118" s="208"/>
-      <c r="D118" s="209"/>
-      <c r="E118" s="209"/>
-      <c r="F118" s="209"/>
-      <c r="G118" s="209"/>
-      <c r="I118" s="208"/>
-      <c r="J118" s="208"/>
+      <c r="A118" s="216"/>
+      <c r="B118" s="216"/>
+      <c r="D118" s="217"/>
+      <c r="E118" s="217"/>
+      <c r="F118" s="217"/>
+      <c r="G118" s="217"/>
+      <c r="I118" s="216"/>
+      <c r="J118" s="216"/>
     </row>
     <row r="119" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A119" s="208"/>
-      <c r="B119" s="208"/>
-      <c r="D119" s="209"/>
-      <c r="E119" s="209"/>
-      <c r="F119" s="209"/>
-      <c r="G119" s="209"/>
-      <c r="I119" s="208"/>
-      <c r="J119" s="208"/>
+      <c r="A119" s="216"/>
+      <c r="B119" s="216"/>
+      <c r="D119" s="217"/>
+      <c r="E119" s="217"/>
+      <c r="F119" s="217"/>
+      <c r="G119" s="217"/>
+      <c r="I119" s="216"/>
+      <c r="J119" s="216"/>
     </row>
     <row r="120" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A120" s="208"/>
-      <c r="B120" s="208"/>
-      <c r="D120" s="209"/>
-      <c r="E120" s="209"/>
-      <c r="F120" s="209"/>
-      <c r="G120" s="209"/>
-      <c r="I120" s="208"/>
-      <c r="J120" s="208"/>
+      <c r="A120" s="216"/>
+      <c r="B120" s="216"/>
+      <c r="D120" s="217"/>
+      <c r="E120" s="217"/>
+      <c r="F120" s="217"/>
+      <c r="G120" s="217"/>
+      <c r="I120" s="216"/>
+      <c r="J120" s="216"/>
     </row>
     <row r="121" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A121" s="208"/>
-      <c r="B121" s="208"/>
-      <c r="D121" s="209"/>
-      <c r="E121" s="209"/>
-      <c r="F121" s="209"/>
-      <c r="G121" s="209"/>
-      <c r="I121" s="208"/>
-      <c r="J121" s="208"/>
+      <c r="A121" s="216"/>
+      <c r="B121" s="216"/>
+      <c r="D121" s="217"/>
+      <c r="E121" s="217"/>
+      <c r="F121" s="217"/>
+      <c r="G121" s="217"/>
+      <c r="I121" s="216"/>
+      <c r="J121" s="216"/>
     </row>
     <row r="123" spans="1:10" ht="13.5" customHeight="1">
       <c r="A123" s="134" t="s">
@@ -44657,80 +44657,80 @@
       <c r="J152" s="80"/>
     </row>
     <row r="153" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A153" s="208" t="s">
+      <c r="A153" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B153" s="208"/>
-      <c r="D153" s="209" t="s">
+      <c r="B153" s="216"/>
+      <c r="D153" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E153" s="209"/>
-      <c r="F153" s="209"/>
-      <c r="G153" s="209"/>
-      <c r="I153" s="208" t="s">
+      <c r="E153" s="217"/>
+      <c r="F153" s="217"/>
+      <c r="G153" s="217"/>
+      <c r="I153" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="J153" s="208"/>
+      <c r="J153" s="216"/>
     </row>
     <row r="154" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A154" s="208"/>
-      <c r="B154" s="208"/>
-      <c r="D154" s="209"/>
-      <c r="E154" s="209"/>
-      <c r="F154" s="209"/>
-      <c r="G154" s="209"/>
-      <c r="I154" s="208"/>
-      <c r="J154" s="208"/>
+      <c r="A154" s="216"/>
+      <c r="B154" s="216"/>
+      <c r="D154" s="217"/>
+      <c r="E154" s="217"/>
+      <c r="F154" s="217"/>
+      <c r="G154" s="217"/>
+      <c r="I154" s="216"/>
+      <c r="J154" s="216"/>
     </row>
     <row r="155" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A155" s="208"/>
-      <c r="B155" s="208"/>
-      <c r="D155" s="209"/>
-      <c r="E155" s="209"/>
-      <c r="F155" s="209"/>
-      <c r="G155" s="209"/>
-      <c r="I155" s="208"/>
-      <c r="J155" s="208"/>
+      <c r="A155" s="216"/>
+      <c r="B155" s="216"/>
+      <c r="D155" s="217"/>
+      <c r="E155" s="217"/>
+      <c r="F155" s="217"/>
+      <c r="G155" s="217"/>
+      <c r="I155" s="216"/>
+      <c r="J155" s="216"/>
     </row>
     <row r="156" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A156" s="208"/>
-      <c r="B156" s="208"/>
-      <c r="D156" s="209"/>
-      <c r="E156" s="209"/>
-      <c r="F156" s="209"/>
-      <c r="G156" s="209"/>
-      <c r="I156" s="208"/>
-      <c r="J156" s="208"/>
+      <c r="A156" s="216"/>
+      <c r="B156" s="216"/>
+      <c r="D156" s="217"/>
+      <c r="E156" s="217"/>
+      <c r="F156" s="217"/>
+      <c r="G156" s="217"/>
+      <c r="I156" s="216"/>
+      <c r="J156" s="216"/>
     </row>
     <row r="157" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A157" s="208"/>
-      <c r="B157" s="208"/>
-      <c r="D157" s="209"/>
-      <c r="E157" s="209"/>
-      <c r="F157" s="209"/>
-      <c r="G157" s="209"/>
-      <c r="I157" s="208"/>
-      <c r="J157" s="208"/>
+      <c r="A157" s="216"/>
+      <c r="B157" s="216"/>
+      <c r="D157" s="217"/>
+      <c r="E157" s="217"/>
+      <c r="F157" s="217"/>
+      <c r="G157" s="217"/>
+      <c r="I157" s="216"/>
+      <c r="J157" s="216"/>
     </row>
     <row r="158" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A158" s="208"/>
-      <c r="B158" s="208"/>
-      <c r="D158" s="209"/>
-      <c r="E158" s="209"/>
-      <c r="F158" s="209"/>
-      <c r="G158" s="209"/>
-      <c r="I158" s="208"/>
-      <c r="J158" s="208"/>
+      <c r="A158" s="216"/>
+      <c r="B158" s="216"/>
+      <c r="D158" s="217"/>
+      <c r="E158" s="217"/>
+      <c r="F158" s="217"/>
+      <c r="G158" s="217"/>
+      <c r="I158" s="216"/>
+      <c r="J158" s="216"/>
     </row>
     <row r="159" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A159" s="208"/>
-      <c r="B159" s="208"/>
-      <c r="D159" s="209"/>
-      <c r="E159" s="209"/>
-      <c r="F159" s="209"/>
-      <c r="G159" s="209"/>
-      <c r="I159" s="208"/>
-      <c r="J159" s="208"/>
+      <c r="A159" s="216"/>
+      <c r="B159" s="216"/>
+      <c r="D159" s="217"/>
+      <c r="E159" s="217"/>
+      <c r="F159" s="217"/>
+      <c r="G159" s="217"/>
+      <c r="I159" s="216"/>
+      <c r="J159" s="216"/>
     </row>
     <row r="161" spans="1:10" ht="13.5" customHeight="1">
       <c r="A161" s="141" t="s">
@@ -45240,80 +45240,80 @@
       <c r="J190" s="80"/>
     </row>
     <row r="191" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A191" s="208" t="s">
+      <c r="A191" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B191" s="208"/>
-      <c r="D191" s="209" t="s">
+      <c r="B191" s="216"/>
+      <c r="D191" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E191" s="209"/>
-      <c r="F191" s="209"/>
-      <c r="G191" s="209"/>
-      <c r="I191" s="208" t="s">
+      <c r="E191" s="217"/>
+      <c r="F191" s="217"/>
+      <c r="G191" s="217"/>
+      <c r="I191" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="J191" s="208"/>
+      <c r="J191" s="216"/>
     </row>
     <row r="192" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A192" s="208"/>
-      <c r="B192" s="208"/>
-      <c r="D192" s="209"/>
-      <c r="E192" s="209"/>
-      <c r="F192" s="209"/>
-      <c r="G192" s="209"/>
-      <c r="I192" s="208"/>
-      <c r="J192" s="208"/>
+      <c r="A192" s="216"/>
+      <c r="B192" s="216"/>
+      <c r="D192" s="217"/>
+      <c r="E192" s="217"/>
+      <c r="F192" s="217"/>
+      <c r="G192" s="217"/>
+      <c r="I192" s="216"/>
+      <c r="J192" s="216"/>
     </row>
     <row r="193" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A193" s="208"/>
-      <c r="B193" s="208"/>
-      <c r="D193" s="209"/>
-      <c r="E193" s="209"/>
-      <c r="F193" s="209"/>
-      <c r="G193" s="209"/>
-      <c r="I193" s="208"/>
-      <c r="J193" s="208"/>
+      <c r="A193" s="216"/>
+      <c r="B193" s="216"/>
+      <c r="D193" s="217"/>
+      <c r="E193" s="217"/>
+      <c r="F193" s="217"/>
+      <c r="G193" s="217"/>
+      <c r="I193" s="216"/>
+      <c r="J193" s="216"/>
     </row>
     <row r="194" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A194" s="208"/>
-      <c r="B194" s="208"/>
-      <c r="D194" s="209"/>
-      <c r="E194" s="209"/>
-      <c r="F194" s="209"/>
-      <c r="G194" s="209"/>
-      <c r="I194" s="208"/>
-      <c r="J194" s="208"/>
+      <c r="A194" s="216"/>
+      <c r="B194" s="216"/>
+      <c r="D194" s="217"/>
+      <c r="E194" s="217"/>
+      <c r="F194" s="217"/>
+      <c r="G194" s="217"/>
+      <c r="I194" s="216"/>
+      <c r="J194" s="216"/>
     </row>
     <row r="195" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A195" s="208"/>
-      <c r="B195" s="208"/>
-      <c r="D195" s="209"/>
-      <c r="E195" s="209"/>
-      <c r="F195" s="209"/>
-      <c r="G195" s="209"/>
-      <c r="I195" s="208"/>
-      <c r="J195" s="208"/>
+      <c r="A195" s="216"/>
+      <c r="B195" s="216"/>
+      <c r="D195" s="217"/>
+      <c r="E195" s="217"/>
+      <c r="F195" s="217"/>
+      <c r="G195" s="217"/>
+      <c r="I195" s="216"/>
+      <c r="J195" s="216"/>
     </row>
     <row r="196" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A196" s="208"/>
-      <c r="B196" s="208"/>
-      <c r="D196" s="209"/>
-      <c r="E196" s="209"/>
-      <c r="F196" s="209"/>
-      <c r="G196" s="209"/>
-      <c r="I196" s="208"/>
-      <c r="J196" s="208"/>
+      <c r="A196" s="216"/>
+      <c r="B196" s="216"/>
+      <c r="D196" s="217"/>
+      <c r="E196" s="217"/>
+      <c r="F196" s="217"/>
+      <c r="G196" s="217"/>
+      <c r="I196" s="216"/>
+      <c r="J196" s="216"/>
     </row>
     <row r="197" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A197" s="208"/>
-      <c r="B197" s="208"/>
-      <c r="D197" s="209"/>
-      <c r="E197" s="209"/>
-      <c r="F197" s="209"/>
-      <c r="G197" s="209"/>
-      <c r="I197" s="208"/>
-      <c r="J197" s="208"/>
+      <c r="A197" s="216"/>
+      <c r="B197" s="216"/>
+      <c r="D197" s="217"/>
+      <c r="E197" s="217"/>
+      <c r="F197" s="217"/>
+      <c r="G197" s="217"/>
+      <c r="I197" s="216"/>
+      <c r="J197" s="216"/>
     </row>
     <row r="200" spans="1:10" ht="13.5" customHeight="1">
       <c r="A200" s="134" t="s">
@@ -45903,30 +45903,30 @@
       <c r="J240" s="152"/>
     </row>
     <row r="243" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A243" s="210" t="s">
+      <c r="A243" s="218" t="s">
         <v>131</v>
       </c>
-      <c r="B243" s="210"/>
-      <c r="C243" s="210"/>
-      <c r="D243" s="210"/>
-      <c r="E243" s="210"/>
-      <c r="F243" s="210"/>
-      <c r="G243" s="210"/>
-      <c r="H243" s="210"/>
-      <c r="I243" s="210"/>
-      <c r="J243" s="210"/>
+      <c r="B243" s="218"/>
+      <c r="C243" s="218"/>
+      <c r="D243" s="218"/>
+      <c r="E243" s="218"/>
+      <c r="F243" s="218"/>
+      <c r="G243" s="218"/>
+      <c r="H243" s="218"/>
+      <c r="I243" s="218"/>
+      <c r="J243" s="218"/>
     </row>
     <row r="244" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A244" s="210"/>
-      <c r="B244" s="210"/>
-      <c r="C244" s="210"/>
-      <c r="D244" s="210"/>
-      <c r="E244" s="210"/>
-      <c r="F244" s="210"/>
-      <c r="G244" s="210"/>
-      <c r="H244" s="210"/>
-      <c r="I244" s="210"/>
-      <c r="J244" s="210"/>
+      <c r="A244" s="218"/>
+      <c r="B244" s="218"/>
+      <c r="C244" s="218"/>
+      <c r="D244" s="218"/>
+      <c r="E244" s="218"/>
+      <c r="F244" s="218"/>
+      <c r="G244" s="218"/>
+      <c r="H244" s="218"/>
+      <c r="I244" s="218"/>
+      <c r="J244" s="218"/>
     </row>
     <row r="245" spans="1:10" ht="13.5" customHeight="1">
       <c r="A245" s="80"/>
@@ -46111,20 +46111,20 @@
       <c r="J259" s="80"/>
     </row>
     <row r="260" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A260" s="206" t="s">
+      <c r="A260" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="B260" s="206"/>
-      <c r="C260" s="206"/>
+      <c r="B260" s="214"/>
+      <c r="C260" s="214"/>
       <c r="D260" s="80"/>
       <c r="E260" s="80"/>
       <c r="F260" s="80"/>
       <c r="G260" s="80"/>
-      <c r="H260" s="206" t="s">
+      <c r="H260" s="214" t="s">
         <v>409</v>
       </c>
-      <c r="I260" s="206"/>
-      <c r="J260" s="206"/>
+      <c r="I260" s="214"/>
+      <c r="J260" s="214"/>
     </row>
     <row r="261" spans="1:10" ht="13.5" customHeight="1">
       <c r="A261" s="80"/>
@@ -46337,6 +46337,7 @@
     <mergeCell ref="E262:E263"/>
     <mergeCell ref="F262:G262"/>
     <mergeCell ref="H262:H263"/>
+    <mergeCell ref="A269:E273"/>
     <mergeCell ref="A243:J244"/>
     <mergeCell ref="A260:C260"/>
     <mergeCell ref="H260:J260"/>
@@ -46396,6 +46397,11 @@
     <mergeCell ref="F212:J212"/>
     <mergeCell ref="G213:J213"/>
     <mergeCell ref="E203:E208"/>
+    <mergeCell ref="B203:D205"/>
+    <mergeCell ref="B206:D208"/>
+    <mergeCell ref="F201:J202"/>
+    <mergeCell ref="F203:J205"/>
+    <mergeCell ref="F206:J208"/>
     <mergeCell ref="A164:C164"/>
     <mergeCell ref="E164:E166"/>
     <mergeCell ref="F164:F166"/>
@@ -46415,6 +46421,7 @@
     <mergeCell ref="F162:F163"/>
     <mergeCell ref="G162:H162"/>
     <mergeCell ref="I162:J162"/>
+    <mergeCell ref="A161:J161"/>
     <mergeCell ref="I115:J121"/>
     <mergeCell ref="A123:J123"/>
     <mergeCell ref="A124:C125"/>
@@ -46453,7 +46460,6 @@
     <mergeCell ref="F69:F73"/>
     <mergeCell ref="D70:D71"/>
     <mergeCell ref="G70:G71"/>
-    <mergeCell ref="A57:A58"/>
     <mergeCell ref="A63:J63"/>
     <mergeCell ref="A64:C65"/>
     <mergeCell ref="D64:D65"/>
@@ -46464,6 +46470,9 @@
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="D60:J61"/>
     <mergeCell ref="B60:C61"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:J49"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D56:J56"/>
     <mergeCell ref="B55:C55"/>
@@ -46478,15 +46487,7 @@
     <mergeCell ref="B57:C58"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D52:J52"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="D43:J44"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:J49"/>
+    <mergeCell ref="A57:A58"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:C51"/>
     <mergeCell ref="D50:J51"/>
@@ -46505,6 +46506,12 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D38:J38"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="D43:J44"/>
     <mergeCell ref="F16:G17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:G19"/>
@@ -46564,20 +46571,6 @@
     <mergeCell ref="F126:F128"/>
     <mergeCell ref="E129:E131"/>
     <mergeCell ref="F129:F131"/>
-    <mergeCell ref="G172:I172"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="E133:F134"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="G139:I139"/>
     <mergeCell ref="G140:I140"/>
     <mergeCell ref="E138:F140"/>
     <mergeCell ref="E135:F137"/>
@@ -46588,17 +46581,15 @@
     <mergeCell ref="A138:C138"/>
     <mergeCell ref="A139:C139"/>
     <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A269:E273"/>
-    <mergeCell ref="A161:J161"/>
-    <mergeCell ref="B203:D205"/>
-    <mergeCell ref="B206:D208"/>
-    <mergeCell ref="F201:J202"/>
-    <mergeCell ref="F203:J205"/>
-    <mergeCell ref="F206:J208"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="E133:F134"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="G139:I139"/>
     <mergeCell ref="A177:C177"/>
     <mergeCell ref="G177:I177"/>
     <mergeCell ref="A178:C178"/>
@@ -46607,11 +46598,20 @@
     <mergeCell ref="J176:J178"/>
     <mergeCell ref="E173:F175"/>
     <mergeCell ref="E176:F178"/>
+    <mergeCell ref="G172:I172"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="G174:I174"/>
     <mergeCell ref="A171:C172"/>
     <mergeCell ref="D171:D172"/>
     <mergeCell ref="E171:F172"/>
     <mergeCell ref="G171:I171"/>
     <mergeCell ref="J171:J172"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="G176:I176"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46665,10 +46665,10 @@
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
       <c r="A2" s="252"/>
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="210" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="203"/>
+      <c r="C2" s="211"/>
       <c r="D2" s="71" t="s">
         <v>18</v>
       </c>
@@ -46806,8 +46806,8 @@
       <c r="A11" s="252"/>
       <c r="B11" s="79"/>
       <c r="C11" s="72"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="205"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="213"/>
       <c r="F11" s="72"/>
       <c r="G11" s="72"/>
       <c r="H11" s="72"/>
@@ -46834,10 +46834,10 @@
       <c r="E13" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="199" t="s">
+      <c r="F13" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="199"/>
+      <c r="G13" s="208"/>
       <c r="H13" s="72"/>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
@@ -46847,11 +46847,11 @@
       <c r="B14" s="79"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="199" t="s">
+      <c r="E14" s="206"/>
+      <c r="F14" s="208" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="199"/>
+      <c r="G14" s="208"/>
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
       <c r="J14" s="72"/>
@@ -46861,9 +46861,9 @@
       <c r="B15" s="79"/>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="208"/>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
@@ -46873,11 +46873,11 @@
       <c r="B16" s="79"/>
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="199" t="s">
+      <c r="E16" s="206"/>
+      <c r="F16" s="208" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="199"/>
+      <c r="G16" s="208"/>
       <c r="H16" s="72"/>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
@@ -46887,9 +46887,9 @@
       <c r="B17" s="79"/>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
       <c r="J17" s="72"/>
@@ -46899,11 +46899,11 @@
       <c r="B18" s="79"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="199" t="s">
+      <c r="E18" s="206"/>
+      <c r="F18" s="208" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="199"/>
+      <c r="G18" s="208"/>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
@@ -46913,9 +46913,9 @@
       <c r="B19" s="79"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="208"/>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
@@ -46925,11 +46925,11 @@
       <c r="B20" s="79"/>
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="199" t="s">
+      <c r="E20" s="206"/>
+      <c r="F20" s="208" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="199"/>
+      <c r="G20" s="208"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
@@ -46939,9 +46939,9 @@
       <c r="B21" s="79"/>
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
@@ -46960,16 +46960,16 @@
     </row>
     <row r="23" spans="1:10" ht="13.5" customHeight="1">
       <c r="A23" s="252"/>
-      <c r="B23" s="206" t="s">
+      <c r="B23" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206"/>
-      <c r="H23" s="206" t="s">
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
+      <c r="H23" s="214" t="s">
         <v>410</v>
       </c>
-      <c r="I23" s="206"/>
-      <c r="J23" s="206"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="214"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" customHeight="1">
       <c r="A24" s="177" t="s">
@@ -47236,10 +47236,10 @@
       <c r="A37" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="244" t="s">
+      <c r="B37" s="221" t="s">
         <v>439</v>
       </c>
-      <c r="C37" s="244"/>
+      <c r="C37" s="221"/>
       <c r="D37" s="168" t="s">
         <v>443</v>
       </c>
@@ -47293,10 +47293,10 @@
       <c r="A40" s="67">
         <v>10</v>
       </c>
-      <c r="B40" s="244" t="s">
+      <c r="B40" s="221" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="244"/>
+      <c r="C40" s="221"/>
       <c r="D40" s="168" t="s">
         <v>431</v>
       </c>
@@ -47497,10 +47497,10 @@
       <c r="A53" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="244" t="s">
+      <c r="B53" s="221" t="s">
         <v>425</v>
       </c>
-      <c r="C53" s="244"/>
+      <c r="C53" s="221"/>
       <c r="D53" s="168" t="s">
         <v>444</v>
       </c>
@@ -47515,10 +47515,10 @@
       <c r="A54" s="67">
         <v>5</v>
       </c>
-      <c r="B54" s="244" t="s">
+      <c r="B54" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="244"/>
+      <c r="C54" s="221"/>
       <c r="D54" s="168" t="s">
         <v>430</v>
       </c>
@@ -47533,10 +47533,10 @@
       <c r="A55" s="67">
         <v>10</v>
       </c>
-      <c r="B55" s="244" t="s">
+      <c r="B55" s="221" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="244"/>
+      <c r="C55" s="221"/>
       <c r="D55" s="168" t="s">
         <v>431</v>
       </c>
@@ -47551,10 +47551,10 @@
       <c r="A56" s="67">
         <v>20</v>
       </c>
-      <c r="B56" s="244" t="s">
+      <c r="B56" s="221" t="s">
         <v>346</v>
       </c>
-      <c r="C56" s="244"/>
+      <c r="C56" s="221"/>
       <c r="D56" s="168" t="s">
         <v>433</v>
       </c>
@@ -48028,87 +48028,87 @@
       <c r="J86" s="80"/>
     </row>
     <row r="87" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A87" s="208" t="s">
+      <c r="A87" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B87" s="208"/>
-      <c r="D87" s="209" t="s">
+      <c r="B87" s="216"/>
+      <c r="D87" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E87" s="209"/>
-      <c r="F87" s="209"/>
-      <c r="G87" s="209"/>
+      <c r="E87" s="217"/>
+      <c r="F87" s="217"/>
+      <c r="G87" s="217"/>
       <c r="H87" s="96"/>
-      <c r="I87" s="208" t="s">
+      <c r="I87" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="J87" s="208"/>
+      <c r="J87" s="216"/>
     </row>
     <row r="88" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A88" s="208"/>
-      <c r="B88" s="208"/>
-      <c r="D88" s="209"/>
-      <c r="E88" s="209"/>
-      <c r="F88" s="209"/>
-      <c r="G88" s="209"/>
+      <c r="A88" s="216"/>
+      <c r="B88" s="216"/>
+      <c r="D88" s="217"/>
+      <c r="E88" s="217"/>
+      <c r="F88" s="217"/>
+      <c r="G88" s="217"/>
       <c r="H88" s="96"/>
-      <c r="I88" s="208"/>
-      <c r="J88" s="208"/>
+      <c r="I88" s="216"/>
+      <c r="J88" s="216"/>
     </row>
     <row r="89" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A89" s="208"/>
-      <c r="B89" s="208"/>
-      <c r="D89" s="209"/>
-      <c r="E89" s="209"/>
-      <c r="F89" s="209"/>
-      <c r="G89" s="209"/>
+      <c r="A89" s="216"/>
+      <c r="B89" s="216"/>
+      <c r="D89" s="217"/>
+      <c r="E89" s="217"/>
+      <c r="F89" s="217"/>
+      <c r="G89" s="217"/>
       <c r="H89" s="96"/>
-      <c r="I89" s="208"/>
-      <c r="J89" s="208"/>
+      <c r="I89" s="216"/>
+      <c r="J89" s="216"/>
     </row>
     <row r="90" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A90" s="208"/>
-      <c r="B90" s="208"/>
-      <c r="D90" s="209"/>
-      <c r="E90" s="209"/>
-      <c r="F90" s="209"/>
-      <c r="G90" s="209"/>
+      <c r="A90" s="216"/>
+      <c r="B90" s="216"/>
+      <c r="D90" s="217"/>
+      <c r="E90" s="217"/>
+      <c r="F90" s="217"/>
+      <c r="G90" s="217"/>
       <c r="H90" s="96"/>
-      <c r="I90" s="208"/>
-      <c r="J90" s="208"/>
+      <c r="I90" s="216"/>
+      <c r="J90" s="216"/>
     </row>
     <row r="91" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A91" s="208"/>
-      <c r="B91" s="208"/>
-      <c r="D91" s="209"/>
-      <c r="E91" s="209"/>
-      <c r="F91" s="209"/>
-      <c r="G91" s="209"/>
+      <c r="A91" s="216"/>
+      <c r="B91" s="216"/>
+      <c r="D91" s="217"/>
+      <c r="E91" s="217"/>
+      <c r="F91" s="217"/>
+      <c r="G91" s="217"/>
       <c r="H91" s="96"/>
-      <c r="I91" s="208"/>
-      <c r="J91" s="208"/>
+      <c r="I91" s="216"/>
+      <c r="J91" s="216"/>
     </row>
     <row r="92" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A92" s="208"/>
-      <c r="B92" s="208"/>
-      <c r="D92" s="209"/>
-      <c r="E92" s="209"/>
-      <c r="F92" s="209"/>
-      <c r="G92" s="209"/>
+      <c r="A92" s="216"/>
+      <c r="B92" s="216"/>
+      <c r="D92" s="217"/>
+      <c r="E92" s="217"/>
+      <c r="F92" s="217"/>
+      <c r="G92" s="217"/>
       <c r="H92" s="96"/>
-      <c r="I92" s="208"/>
-      <c r="J92" s="208"/>
+      <c r="I92" s="216"/>
+      <c r="J92" s="216"/>
     </row>
     <row r="93" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A93" s="208"/>
-      <c r="B93" s="208"/>
-      <c r="D93" s="209"/>
-      <c r="E93" s="209"/>
-      <c r="F93" s="209"/>
-      <c r="G93" s="209"/>
+      <c r="A93" s="216"/>
+      <c r="B93" s="216"/>
+      <c r="D93" s="217"/>
+      <c r="E93" s="217"/>
+      <c r="F93" s="217"/>
+      <c r="G93" s="217"/>
       <c r="H93" s="96"/>
-      <c r="I93" s="208"/>
-      <c r="J93" s="208"/>
+      <c r="I93" s="216"/>
+      <c r="J93" s="216"/>
     </row>
     <row r="95" spans="1:10" ht="13.5" customHeight="1">
       <c r="A95" s="134" t="s">
@@ -48286,13 +48286,13 @@
       <c r="G102" s="134">
         <v>286</v>
       </c>
-      <c r="H102" s="207">
+      <c r="H102" s="215">
         <v>185</v>
       </c>
       <c r="I102" s="134">
         <v>541</v>
       </c>
-      <c r="J102" s="207">
+      <c r="J102" s="215">
         <v>350</v>
       </c>
     </row>
@@ -48306,9 +48306,9 @@
       <c r="E103" s="134"/>
       <c r="F103" s="134"/>
       <c r="G103" s="134"/>
-      <c r="H103" s="207"/>
+      <c r="H103" s="215"/>
       <c r="I103" s="134"/>
-      <c r="J103" s="207"/>
+      <c r="J103" s="215"/>
     </row>
     <row r="104" spans="1:10" ht="13.5" customHeight="1">
       <c r="A104" s="134" t="s">
@@ -48324,13 +48324,13 @@
       <c r="G104" s="134">
         <v>318</v>
       </c>
-      <c r="H104" s="207">
+      <c r="H104" s="215">
         <v>206</v>
       </c>
       <c r="I104" s="134">
         <v>573</v>
       </c>
-      <c r="J104" s="207">
+      <c r="J104" s="215">
         <v>371</v>
       </c>
     </row>
@@ -48344,9 +48344,9 @@
       <c r="E105" s="134"/>
       <c r="F105" s="134"/>
       <c r="G105" s="134"/>
-      <c r="H105" s="207"/>
+      <c r="H105" s="215"/>
       <c r="I105" s="134"/>
-      <c r="J105" s="207"/>
+      <c r="J105" s="215"/>
     </row>
     <row r="106" spans="1:10" ht="13.5" customHeight="1">
       <c r="A106" s="80"/>
@@ -48493,80 +48493,80 @@
       <c r="J117" s="80"/>
     </row>
     <row r="118" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A118" s="208" t="s">
+      <c r="A118" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="208"/>
-      <c r="D118" s="209" t="s">
+      <c r="B118" s="216"/>
+      <c r="D118" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E118" s="209"/>
-      <c r="F118" s="209"/>
-      <c r="G118" s="209"/>
-      <c r="I118" s="208" t="s">
+      <c r="E118" s="217"/>
+      <c r="F118" s="217"/>
+      <c r="G118" s="217"/>
+      <c r="I118" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="J118" s="208"/>
+      <c r="J118" s="216"/>
     </row>
     <row r="119" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A119" s="208"/>
-      <c r="B119" s="208"/>
-      <c r="D119" s="209"/>
-      <c r="E119" s="209"/>
-      <c r="F119" s="209"/>
-      <c r="G119" s="209"/>
-      <c r="I119" s="208"/>
-      <c r="J119" s="208"/>
+      <c r="A119" s="216"/>
+      <c r="B119" s="216"/>
+      <c r="D119" s="217"/>
+      <c r="E119" s="217"/>
+      <c r="F119" s="217"/>
+      <c r="G119" s="217"/>
+      <c r="I119" s="216"/>
+      <c r="J119" s="216"/>
     </row>
     <row r="120" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A120" s="208"/>
-      <c r="B120" s="208"/>
-      <c r="D120" s="209"/>
-      <c r="E120" s="209"/>
-      <c r="F120" s="209"/>
-      <c r="G120" s="209"/>
-      <c r="I120" s="208"/>
-      <c r="J120" s="208"/>
+      <c r="A120" s="216"/>
+      <c r="B120" s="216"/>
+      <c r="D120" s="217"/>
+      <c r="E120" s="217"/>
+      <c r="F120" s="217"/>
+      <c r="G120" s="217"/>
+      <c r="I120" s="216"/>
+      <c r="J120" s="216"/>
     </row>
     <row r="121" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A121" s="208"/>
-      <c r="B121" s="208"/>
-      <c r="D121" s="209"/>
-      <c r="E121" s="209"/>
-      <c r="F121" s="209"/>
-      <c r="G121" s="209"/>
-      <c r="I121" s="208"/>
-      <c r="J121" s="208"/>
+      <c r="A121" s="216"/>
+      <c r="B121" s="216"/>
+      <c r="D121" s="217"/>
+      <c r="E121" s="217"/>
+      <c r="F121" s="217"/>
+      <c r="G121" s="217"/>
+      <c r="I121" s="216"/>
+      <c r="J121" s="216"/>
     </row>
     <row r="122" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A122" s="208"/>
-      <c r="B122" s="208"/>
-      <c r="D122" s="209"/>
-      <c r="E122" s="209"/>
-      <c r="F122" s="209"/>
-      <c r="G122" s="209"/>
-      <c r="I122" s="208"/>
-      <c r="J122" s="208"/>
+      <c r="A122" s="216"/>
+      <c r="B122" s="216"/>
+      <c r="D122" s="217"/>
+      <c r="E122" s="217"/>
+      <c r="F122" s="217"/>
+      <c r="G122" s="217"/>
+      <c r="I122" s="216"/>
+      <c r="J122" s="216"/>
     </row>
     <row r="123" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A123" s="208"/>
-      <c r="B123" s="208"/>
-      <c r="D123" s="209"/>
-      <c r="E123" s="209"/>
-      <c r="F123" s="209"/>
-      <c r="G123" s="209"/>
-      <c r="I123" s="208"/>
-      <c r="J123" s="208"/>
+      <c r="A123" s="216"/>
+      <c r="B123" s="216"/>
+      <c r="D123" s="217"/>
+      <c r="E123" s="217"/>
+      <c r="F123" s="217"/>
+      <c r="G123" s="217"/>
+      <c r="I123" s="216"/>
+      <c r="J123" s="216"/>
     </row>
     <row r="124" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A124" s="208"/>
-      <c r="B124" s="208"/>
-      <c r="D124" s="209"/>
-      <c r="E124" s="209"/>
-      <c r="F124" s="209"/>
-      <c r="G124" s="209"/>
-      <c r="I124" s="208"/>
-      <c r="J124" s="208"/>
+      <c r="A124" s="216"/>
+      <c r="B124" s="216"/>
+      <c r="D124" s="217"/>
+      <c r="E124" s="217"/>
+      <c r="F124" s="217"/>
+      <c r="G124" s="217"/>
+      <c r="I124" s="216"/>
+      <c r="J124" s="216"/>
     </row>
     <row r="126" spans="1:10" ht="13.5" customHeight="1">
       <c r="A126" s="134" t="s">
@@ -48866,7 +48866,7 @@
       </c>
       <c r="E140" s="159"/>
       <c r="F140" s="161"/>
-      <c r="G140" s="196" t="s">
+      <c r="G140" s="205" t="s">
         <v>592</v>
       </c>
       <c r="H140" s="151"/>
@@ -49074,80 +49074,80 @@
       <c r="J155" s="80"/>
     </row>
     <row r="156" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A156" s="208" t="s">
+      <c r="A156" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B156" s="208"/>
-      <c r="D156" s="209" t="s">
+      <c r="B156" s="216"/>
+      <c r="D156" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E156" s="209"/>
-      <c r="F156" s="209"/>
-      <c r="G156" s="209"/>
-      <c r="I156" s="208" t="s">
+      <c r="E156" s="217"/>
+      <c r="F156" s="217"/>
+      <c r="G156" s="217"/>
+      <c r="I156" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="J156" s="208"/>
+      <c r="J156" s="216"/>
     </row>
     <row r="157" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A157" s="208"/>
-      <c r="B157" s="208"/>
-      <c r="D157" s="209"/>
-      <c r="E157" s="209"/>
-      <c r="F157" s="209"/>
-      <c r="G157" s="209"/>
-      <c r="I157" s="208"/>
-      <c r="J157" s="208"/>
+      <c r="A157" s="216"/>
+      <c r="B157" s="216"/>
+      <c r="D157" s="217"/>
+      <c r="E157" s="217"/>
+      <c r="F157" s="217"/>
+      <c r="G157" s="217"/>
+      <c r="I157" s="216"/>
+      <c r="J157" s="216"/>
     </row>
     <row r="158" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A158" s="208"/>
-      <c r="B158" s="208"/>
-      <c r="D158" s="209"/>
-      <c r="E158" s="209"/>
-      <c r="F158" s="209"/>
-      <c r="G158" s="209"/>
-      <c r="I158" s="208"/>
-      <c r="J158" s="208"/>
+      <c r="A158" s="216"/>
+      <c r="B158" s="216"/>
+      <c r="D158" s="217"/>
+      <c r="E158" s="217"/>
+      <c r="F158" s="217"/>
+      <c r="G158" s="217"/>
+      <c r="I158" s="216"/>
+      <c r="J158" s="216"/>
     </row>
     <row r="159" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A159" s="208"/>
-      <c r="B159" s="208"/>
-      <c r="D159" s="209"/>
-      <c r="E159" s="209"/>
-      <c r="F159" s="209"/>
-      <c r="G159" s="209"/>
-      <c r="I159" s="208"/>
-      <c r="J159" s="208"/>
+      <c r="A159" s="216"/>
+      <c r="B159" s="216"/>
+      <c r="D159" s="217"/>
+      <c r="E159" s="217"/>
+      <c r="F159" s="217"/>
+      <c r="G159" s="217"/>
+      <c r="I159" s="216"/>
+      <c r="J159" s="216"/>
     </row>
     <row r="160" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A160" s="208"/>
-      <c r="B160" s="208"/>
-      <c r="D160" s="209"/>
-      <c r="E160" s="209"/>
-      <c r="F160" s="209"/>
-      <c r="G160" s="209"/>
-      <c r="I160" s="208"/>
-      <c r="J160" s="208"/>
+      <c r="A160" s="216"/>
+      <c r="B160" s="216"/>
+      <c r="D160" s="217"/>
+      <c r="E160" s="217"/>
+      <c r="F160" s="217"/>
+      <c r="G160" s="217"/>
+      <c r="I160" s="216"/>
+      <c r="J160" s="216"/>
     </row>
     <row r="161" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A161" s="208"/>
-      <c r="B161" s="208"/>
-      <c r="D161" s="209"/>
-      <c r="E161" s="209"/>
-      <c r="F161" s="209"/>
-      <c r="G161" s="209"/>
-      <c r="I161" s="208"/>
-      <c r="J161" s="208"/>
+      <c r="A161" s="216"/>
+      <c r="B161" s="216"/>
+      <c r="D161" s="217"/>
+      <c r="E161" s="217"/>
+      <c r="F161" s="217"/>
+      <c r="G161" s="217"/>
+      <c r="I161" s="216"/>
+      <c r="J161" s="216"/>
     </row>
     <row r="162" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A162" s="208"/>
-      <c r="B162" s="208"/>
-      <c r="D162" s="209"/>
-      <c r="E162" s="209"/>
-      <c r="F162" s="209"/>
-      <c r="G162" s="209"/>
-      <c r="I162" s="208"/>
-      <c r="J162" s="208"/>
+      <c r="A162" s="216"/>
+      <c r="B162" s="216"/>
+      <c r="D162" s="217"/>
+      <c r="E162" s="217"/>
+      <c r="F162" s="217"/>
+      <c r="G162" s="217"/>
+      <c r="I162" s="216"/>
+      <c r="J162" s="216"/>
     </row>
     <row r="164" spans="1:10" ht="13.5" customHeight="1">
       <c r="A164" s="150" t="s">
@@ -49458,7 +49458,7 @@
       </c>
       <c r="E178" s="159"/>
       <c r="F178" s="161"/>
-      <c r="G178" s="196" t="s">
+      <c r="G178" s="205" t="s">
         <v>592</v>
       </c>
       <c r="H178" s="151"/>
@@ -49666,80 +49666,80 @@
       <c r="J193" s="80"/>
     </row>
     <row r="194" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A194" s="208" t="s">
+      <c r="A194" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="B194" s="208"/>
-      <c r="D194" s="209" t="s">
+      <c r="B194" s="216"/>
+      <c r="D194" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="E194" s="209"/>
-      <c r="F194" s="209"/>
-      <c r="G194" s="209"/>
-      <c r="I194" s="208" t="s">
+      <c r="E194" s="217"/>
+      <c r="F194" s="217"/>
+      <c r="G194" s="217"/>
+      <c r="I194" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="J194" s="208"/>
+      <c r="J194" s="216"/>
     </row>
     <row r="195" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A195" s="208"/>
-      <c r="B195" s="208"/>
-      <c r="D195" s="209"/>
-      <c r="E195" s="209"/>
-      <c r="F195" s="209"/>
-      <c r="G195" s="209"/>
-      <c r="I195" s="208"/>
-      <c r="J195" s="208"/>
+      <c r="A195" s="216"/>
+      <c r="B195" s="216"/>
+      <c r="D195" s="217"/>
+      <c r="E195" s="217"/>
+      <c r="F195" s="217"/>
+      <c r="G195" s="217"/>
+      <c r="I195" s="216"/>
+      <c r="J195" s="216"/>
     </row>
     <row r="196" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A196" s="208"/>
-      <c r="B196" s="208"/>
-      <c r="D196" s="209"/>
-      <c r="E196" s="209"/>
-      <c r="F196" s="209"/>
-      <c r="G196" s="209"/>
-      <c r="I196" s="208"/>
-      <c r="J196" s="208"/>
+      <c r="A196" s="216"/>
+      <c r="B196" s="216"/>
+      <c r="D196" s="217"/>
+      <c r="E196" s="217"/>
+      <c r="F196" s="217"/>
+      <c r="G196" s="217"/>
+      <c r="I196" s="216"/>
+      <c r="J196" s="216"/>
     </row>
     <row r="197" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A197" s="208"/>
-      <c r="B197" s="208"/>
-      <c r="D197" s="209"/>
-      <c r="E197" s="209"/>
-      <c r="F197" s="209"/>
-      <c r="G197" s="209"/>
-      <c r="I197" s="208"/>
-      <c r="J197" s="208"/>
+      <c r="A197" s="216"/>
+      <c r="B197" s="216"/>
+      <c r="D197" s="217"/>
+      <c r="E197" s="217"/>
+      <c r="F197" s="217"/>
+      <c r="G197" s="217"/>
+      <c r="I197" s="216"/>
+      <c r="J197" s="216"/>
     </row>
     <row r="198" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A198" s="208"/>
-      <c r="B198" s="208"/>
-      <c r="D198" s="209"/>
-      <c r="E198" s="209"/>
-      <c r="F198" s="209"/>
-      <c r="G198" s="209"/>
-      <c r="I198" s="208"/>
-      <c r="J198" s="208"/>
+      <c r="A198" s="216"/>
+      <c r="B198" s="216"/>
+      <c r="D198" s="217"/>
+      <c r="E198" s="217"/>
+      <c r="F198" s="217"/>
+      <c r="G198" s="217"/>
+      <c r="I198" s="216"/>
+      <c r="J198" s="216"/>
     </row>
     <row r="199" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A199" s="208"/>
-      <c r="B199" s="208"/>
-      <c r="D199" s="209"/>
-      <c r="E199" s="209"/>
-      <c r="F199" s="209"/>
-      <c r="G199" s="209"/>
-      <c r="I199" s="208"/>
-      <c r="J199" s="208"/>
+      <c r="A199" s="216"/>
+      <c r="B199" s="216"/>
+      <c r="D199" s="217"/>
+      <c r="E199" s="217"/>
+      <c r="F199" s="217"/>
+      <c r="G199" s="217"/>
+      <c r="I199" s="216"/>
+      <c r="J199" s="216"/>
     </row>
     <row r="200" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A200" s="208"/>
-      <c r="B200" s="208"/>
-      <c r="D200" s="209"/>
-      <c r="E200" s="209"/>
-      <c r="F200" s="209"/>
-      <c r="G200" s="209"/>
-      <c r="I200" s="208"/>
-      <c r="J200" s="208"/>
+      <c r="A200" s="216"/>
+      <c r="B200" s="216"/>
+      <c r="D200" s="217"/>
+      <c r="E200" s="217"/>
+      <c r="F200" s="217"/>
+      <c r="G200" s="217"/>
+      <c r="I200" s="216"/>
+      <c r="J200" s="216"/>
     </row>
     <row r="203" spans="1:10" ht="13.5" customHeight="1">
       <c r="A203" s="134" t="s">
@@ -50327,30 +50327,30 @@
       <c r="J243" s="152"/>
     </row>
     <row r="246" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A246" s="210" t="s">
+      <c r="A246" s="218" t="s">
         <v>131</v>
       </c>
-      <c r="B246" s="210"/>
-      <c r="C246" s="210"/>
-      <c r="D246" s="210"/>
-      <c r="E246" s="210"/>
-      <c r="F246" s="210"/>
-      <c r="G246" s="210"/>
-      <c r="H246" s="210"/>
-      <c r="I246" s="210"/>
-      <c r="J246" s="210"/>
+      <c r="B246" s="218"/>
+      <c r="C246" s="218"/>
+      <c r="D246" s="218"/>
+      <c r="E246" s="218"/>
+      <c r="F246" s="218"/>
+      <c r="G246" s="218"/>
+      <c r="H246" s="218"/>
+      <c r="I246" s="218"/>
+      <c r="J246" s="218"/>
     </row>
     <row r="247" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A247" s="210"/>
-      <c r="B247" s="210"/>
-      <c r="C247" s="210"/>
-      <c r="D247" s="210"/>
-      <c r="E247" s="210"/>
-      <c r="F247" s="210"/>
-      <c r="G247" s="210"/>
-      <c r="H247" s="210"/>
-      <c r="I247" s="210"/>
-      <c r="J247" s="210"/>
+      <c r="A247" s="218"/>
+      <c r="B247" s="218"/>
+      <c r="C247" s="218"/>
+      <c r="D247" s="218"/>
+      <c r="E247" s="218"/>
+      <c r="F247" s="218"/>
+      <c r="G247" s="218"/>
+      <c r="H247" s="218"/>
+      <c r="I247" s="218"/>
+      <c r="J247" s="218"/>
     </row>
     <row r="248" spans="1:10" ht="13.5" customHeight="1">
       <c r="A248" s="80"/>
@@ -50535,20 +50535,20 @@
       <c r="J262" s="80"/>
     </row>
     <row r="263" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A263" s="206" t="s">
+      <c r="A263" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="B263" s="206"/>
-      <c r="C263" s="206"/>
+      <c r="B263" s="214"/>
+      <c r="C263" s="214"/>
       <c r="D263" s="80"/>
       <c r="E263" s="80"/>
       <c r="F263" s="80"/>
       <c r="G263" s="80"/>
-      <c r="H263" s="206" t="s">
+      <c r="H263" s="214" t="s">
         <v>410</v>
       </c>
-      <c r="I263" s="206"/>
-      <c r="J263" s="206"/>
+      <c r="I263" s="214"/>
+      <c r="J263" s="214"/>
     </row>
     <row r="264" spans="1:10" ht="13.5" customHeight="1">
       <c r="A264" s="80"/>
@@ -50946,18 +50946,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:G15"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="D45:J46"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:C68"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="E67:E68"/>
     <mergeCell ref="F67:F68"/>
@@ -50968,8 +50956,6 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D56:J56"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="B53:C53"/>
     <mergeCell ref="D165:D166"/>
     <mergeCell ref="E165:E166"/>
     <mergeCell ref="F165:F166"/>
@@ -50985,6 +50971,15 @@
     <mergeCell ref="F132:F134"/>
     <mergeCell ref="A133:C133"/>
     <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:F137"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="J138:J143"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="G139:I139"/>
     <mergeCell ref="A214:J214"/>
     <mergeCell ref="A215:C216"/>
     <mergeCell ref="D215:D216"/>
@@ -51022,6 +51017,8 @@
     <mergeCell ref="B225:D226"/>
     <mergeCell ref="E225:E226"/>
     <mergeCell ref="A234:J234"/>
+    <mergeCell ref="B227:D229"/>
+    <mergeCell ref="B230:D232"/>
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="A242:C242"/>
     <mergeCell ref="A243:J243"/>
@@ -51092,12 +51089,6 @@
     <mergeCell ref="D34:J34"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:J48"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="D49:J50"/>
-    <mergeCell ref="D51:J52"/>
-    <mergeCell ref="D62:J63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:C63"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:J37"/>
     <mergeCell ref="B43:C43"/>
@@ -51107,12 +51098,10 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="D54:J54"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="D59:J60"/>
-    <mergeCell ref="A87:B93"/>
-    <mergeCell ref="D87:G93"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D45:J46"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="I87:J93"/>
     <mergeCell ref="A95:J95"/>
     <mergeCell ref="A96:C97"/>
@@ -51121,13 +51110,22 @@
     <mergeCell ref="F96:F97"/>
     <mergeCell ref="G96:H96"/>
     <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:F137"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="D49:J50"/>
+    <mergeCell ref="D51:J52"/>
+    <mergeCell ref="D62:J63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="D59:J60"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:C68"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A74:C74"/>
@@ -51139,12 +51137,8 @@
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="A99:C99"/>
     <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A118:B124"/>
-    <mergeCell ref="D118:G124"/>
-    <mergeCell ref="I118:J124"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="A127:C128"/>
-    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="A87:B93"/>
+    <mergeCell ref="D87:G93"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A102:C102"/>
     <mergeCell ref="A103:C103"/>
@@ -51161,11 +51155,7 @@
     <mergeCell ref="E101:E105"/>
     <mergeCell ref="F101:F105"/>
     <mergeCell ref="D102:D103"/>
-    <mergeCell ref="J138:J143"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="D104:D105"/>
     <mergeCell ref="A141:C141"/>
     <mergeCell ref="E141:F143"/>
     <mergeCell ref="G141:I141"/>
@@ -51173,8 +51163,16 @@
     <mergeCell ref="G142:I142"/>
     <mergeCell ref="A143:C143"/>
     <mergeCell ref="G143:I143"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A118:B124"/>
+    <mergeCell ref="D118:G124"/>
+    <mergeCell ref="I118:J124"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="A127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="I127:J127"/>
     <mergeCell ref="E179:F181"/>
     <mergeCell ref="A180:C180"/>
     <mergeCell ref="A181:C181"/>
@@ -51197,8 +51195,8 @@
     <mergeCell ref="D156:G162"/>
     <mergeCell ref="I156:J162"/>
     <mergeCell ref="A165:C166"/>
-    <mergeCell ref="B227:D229"/>
-    <mergeCell ref="B230:D232"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="G140:I140"/>
     <mergeCell ref="A164:J164"/>
     <mergeCell ref="G178:I178"/>
     <mergeCell ref="G179:I179"/>
@@ -51221,6 +51219,8 @@
     <mergeCell ref="E176:F178"/>
     <mergeCell ref="J176:J181"/>
     <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A179:C179"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
